--- a/data/data_stations_codes.xlsx
+++ b/data/data_stations_codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laure/Desktop/TUDelft/Advanced Data Science/Data NS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laure/Desktop/TUDelft/Advanced Data Science/Projet repository/Group2_NS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC461998-6668-FD44-B6A7-F94EF157627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69990592-FC4B-854B-970D-6D483F1FA5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A41985DB-FFA8-7C47-94F8-1FC7A1C221F2}"/>
   </bookViews>
@@ -2442,18 +2442,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2467,12 +2459,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF202122"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -2494,18 +2480,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2841,7 +2825,7 @@
   <dimension ref="A1:B400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6050,407 +6034,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Aalten railway station" display="https://en.wikipedia.org/wiki/Aalten_railway_station" xr:uid="{7865799C-BD77-884B-A1B8-EA36A60AB9E1}"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="Abcoude railway station" display="https://en.wikipedia.org/wiki/Abcoude_railway_station" xr:uid="{461049C1-6DEF-A04D-B0CF-4E56DF7D97A7}"/>
-    <hyperlink ref="A4" r:id="rId3" tooltip="Akkrum railway station" display="https://en.wikipedia.org/wiki/Akkrum_railway_station" xr:uid="{1A030545-6DB4-5046-B0DD-8FAFC4A62EBB}"/>
-    <hyperlink ref="A5" r:id="rId4" tooltip="Alkmaar Noord railway station" display="https://en.wikipedia.org/wiki/Alkmaar_Noord_railway_station" xr:uid="{81FAF937-0081-3A4B-AF0E-797F3AF2C739}"/>
-    <hyperlink ref="A6" r:id="rId5" tooltip="Alkmaar railway station" display="https://en.wikipedia.org/wiki/Alkmaar_railway_station" xr:uid="{C5858973-571A-5E44-953B-8CE04F68F347}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Almelo de Riet railway station" display="https://en.wikipedia.org/wiki/Almelo_de_Riet_railway_station" xr:uid="{3FA86CB3-BFB2-BB4F-9EA1-7E5C4D6B583D}"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="Almelo railway station" display="https://en.wikipedia.org/wiki/Almelo_railway_station" xr:uid="{FEA0D75C-3274-5641-AF35-C079C657960D}"/>
-    <hyperlink ref="A9" r:id="rId8" tooltip="Almere Buiten railway station" display="https://en.wikipedia.org/wiki/Almere_Buiten_railway_station" xr:uid="{EC3DCBF7-BB76-F74B-867D-7CB48F04663E}"/>
-    <hyperlink ref="A10" r:id="rId9" tooltip="Almere Centrum railway station" display="https://en.wikipedia.org/wiki/Almere_Centrum_railway_station" xr:uid="{71A70BF8-F5F8-9840-9359-8189489F1BDC}"/>
-    <hyperlink ref="A11" r:id="rId10" tooltip="Almere Muziekwijk railway station" display="https://en.wikipedia.org/wiki/Almere_Muziekwijk_railway_station" xr:uid="{6F672F80-7D77-7947-85FB-5A9AC427A42C}"/>
-    <hyperlink ref="A12" r:id="rId11" tooltip="Almere Oostvaarders railway station" display="https://en.wikipedia.org/wiki/Almere_Oostvaarders_railway_station" xr:uid="{0050C3E7-50F3-CC45-893A-8E29AB028E6C}"/>
-    <hyperlink ref="A13" r:id="rId12" tooltip="Almere Parkwijk railway station" display="https://en.wikipedia.org/wiki/Almere_Parkwijk_railway_station" xr:uid="{A6366950-1265-6D4D-8DDD-819947673FD7}"/>
-    <hyperlink ref="A14" r:id="rId13" tooltip="Almere Poort railway station" display="https://en.wikipedia.org/wiki/Almere_Poort_railway_station" xr:uid="{3C9B646A-AB56-004F-8C94-BD6D1315BD74}"/>
-    <hyperlink ref="A15" r:id="rId14" tooltip="Alphen aan den Rijn railway station" display="https://en.wikipedia.org/wiki/Alphen_aan_den_Rijn_railway_station" xr:uid="{47D2CB16-7D45-A443-ADBA-D1ECA4782D8C}"/>
-    <hyperlink ref="A16" r:id="rId15" tooltip="Amersfoort Centraal railway station" display="https://en.wikipedia.org/wiki/Amersfoort_Centraal_railway_station" xr:uid="{D646D611-8683-7A4D-8A39-C52831AB2896}"/>
-    <hyperlink ref="A17" r:id="rId16" tooltip="Amersfoort Schothorst railway station" display="https://en.wikipedia.org/wiki/Amersfoort_Schothorst_railway_station" xr:uid="{B8D17A29-7A1F-C842-8300-77168E6999DB}"/>
-    <hyperlink ref="A18" r:id="rId17" tooltip="Amersfoort Vathorst railway station" display="https://en.wikipedia.org/wiki/Amersfoort_Vathorst_railway_station" xr:uid="{428505D5-D7A6-164F-9AD2-5C7924E39551}"/>
-    <hyperlink ref="A19" r:id="rId18" tooltip="Amsterdam Amstel railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Amstel_railway_station" xr:uid="{948D5034-86F1-3A48-A417-91AE6D8460F3}"/>
-    <hyperlink ref="A20" r:id="rId19" tooltip="Amsterdam Arena railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Arena_railway_station" xr:uid="{AC37F4C9-4669-A647-9F14-5DE1623392E3}"/>
-    <hyperlink ref="A21" r:id="rId20" tooltip="Amsterdam Bijlmer ArenA railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Bijlmer_ArenA_railway_station" xr:uid="{375AE55E-E562-0640-999F-350731090BFB}"/>
-    <hyperlink ref="A22" r:id="rId21" tooltip="Amsterdam Centraal railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Centraal_railway_station" xr:uid="{891C7D5B-3D11-234D-B7FB-4017694B2AA9}"/>
-    <hyperlink ref="A23" r:id="rId22" tooltip="Amsterdam Holendrecht railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Holendrecht_railway_station" xr:uid="{2AC2CF17-9843-AC47-81E2-584C1A8BB4EE}"/>
-    <hyperlink ref="A24" r:id="rId23" tooltip="Amsterdam Lelylaan railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Lelylaan_railway_station" xr:uid="{E99012F1-B586-6E4C-898C-CCDFAA323E6E}"/>
-    <hyperlink ref="A25" r:id="rId24" tooltip="Amsterdam Muiderpoort railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Muiderpoort_railway_station" xr:uid="{B6D038E4-69FD-294F-88AE-FE0F6FABDFE4}"/>
-    <hyperlink ref="A26" r:id="rId25" tooltip="Amsterdam RAI railway station" display="https://en.wikipedia.org/wiki/Amsterdam_RAI_railway_station" xr:uid="{1F2AFA15-1178-154D-98E2-0004118CD0D3}"/>
-    <hyperlink ref="A27" r:id="rId26" tooltip="Amsterdam Science Park railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Science_Park_railway_station" xr:uid="{6EF73AB7-D8A9-2544-AF65-9313C557FE70}"/>
-    <hyperlink ref="A28" r:id="rId27" tooltip="Amsterdam Sloterdijk railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Sloterdijk_railway_station" xr:uid="{4247270C-A887-6640-B67D-8A684694FC15}"/>
-    <hyperlink ref="A29" r:id="rId28" tooltip="Amsterdam Zuid railway station" display="https://en.wikipedia.org/wiki/Amsterdam_Zuid_railway_station" xr:uid="{75C09380-6743-EB44-AD02-FBE4D2A46168}"/>
-    <hyperlink ref="A30" r:id="rId29" tooltip="Anna Paulowna railway station" display="https://en.wikipedia.org/wiki/Anna_Paulowna_railway_station" xr:uid="{A935FC31-D6CF-4E4C-9A83-202FCFA2A466}"/>
-    <hyperlink ref="A31" r:id="rId30" tooltip="Apeldoorn De Maten railway station" display="https://en.wikipedia.org/wiki/Apeldoorn_De_Maten_railway_station" xr:uid="{BCE28C55-041C-8C48-848D-0FAC366B33A9}"/>
-    <hyperlink ref="A32" r:id="rId31" tooltip="Apeldoorn Osseveld railway station" display="https://en.wikipedia.org/wiki/Apeldoorn_Osseveld_railway_station" xr:uid="{AAD27D35-3A82-B241-B948-3C06ED863E8C}"/>
-    <hyperlink ref="A33" r:id="rId32" tooltip="Apeldoorn railway station" display="https://en.wikipedia.org/wiki/Apeldoorn_railway_station" xr:uid="{F1455459-E81F-EA4E-88EB-7995C0AFF1A7}"/>
-    <hyperlink ref="A34" r:id="rId33" tooltip="Appingedam railway station" display="https://en.wikipedia.org/wiki/Appingedam_railway_station" xr:uid="{8E70E2D2-34B4-6A4D-8A10-AC5AA97E4DFD}"/>
-    <hyperlink ref="A35" r:id="rId34" tooltip="Arkel railway station" display="https://en.wikipedia.org/wiki/Arkel_railway_station" xr:uid="{63599044-86F3-7340-8598-A4D12D8B151A}"/>
-    <hyperlink ref="A36" r:id="rId35" tooltip="Arnemuiden railway station" display="https://en.wikipedia.org/wiki/Arnemuiden_railway_station" xr:uid="{B54461A0-B4DA-4642-9727-77B75DD814CC}"/>
-    <hyperlink ref="A37" r:id="rId36" tooltip="Arnhem Presikhaaf railway station" display="https://en.wikipedia.org/wiki/Arnhem_Presikhaaf_railway_station" xr:uid="{B392EFE5-5AEF-4B4B-8B42-EDF3F0831903}"/>
-    <hyperlink ref="A38" r:id="rId37" tooltip="Arnhem Centraal railway station" display="https://en.wikipedia.org/wiki/Arnhem_Centraal_railway_station" xr:uid="{0F7CD9D1-7D32-8046-BDE2-A00DF922CC7F}"/>
-    <hyperlink ref="A39" r:id="rId38" tooltip="Arnhem Velperpoort railway station" display="https://en.wikipedia.org/wiki/Arnhem_Velperpoort_railway_station" xr:uid="{76CDD292-F833-7749-B930-D4DB18B0130E}"/>
-    <hyperlink ref="A40" r:id="rId39" tooltip="Arnhem Zuid railway station" display="https://en.wikipedia.org/wiki/Arnhem_Zuid_railway_station" xr:uid="{E8471B2C-11B0-C04C-8BF2-F3460795D199}"/>
-    <hyperlink ref="A41" r:id="rId40" tooltip="Assen railway station" display="https://en.wikipedia.org/wiki/Assen_railway_station" xr:uid="{8DA7A29C-D850-2E46-B887-B11F88E8B1B6}"/>
-    <hyperlink ref="A42" r:id="rId41" tooltip="Baarn railway station" display="https://en.wikipedia.org/wiki/Baarn_railway_station" xr:uid="{5818FBD5-0C3D-4C4E-A814-10FC9833124F}"/>
-    <hyperlink ref="A43" r:id="rId42" tooltip="Bad Nieuweschans railway station" display="https://en.wikipedia.org/wiki/Bad_Nieuweschans_railway_station" xr:uid="{A8829AD5-E188-8247-B9E4-F4159E961BAC}"/>
-    <hyperlink ref="A44" r:id="rId43" tooltip="Baflo railway station" display="https://en.wikipedia.org/wiki/Baflo_railway_station" xr:uid="{F3708B0C-06C9-2342-9472-2627A06FB3F0}"/>
-    <hyperlink ref="A45" r:id="rId44" tooltip="Barendrecht railway station" display="https://en.wikipedia.org/wiki/Barendrecht_railway_station" xr:uid="{A4FEF5E1-2ED9-B849-ABD4-D88F4BFEDF2A}"/>
-    <hyperlink ref="A46" r:id="rId45" tooltip="Barneveld Centrum railway station" display="https://en.wikipedia.org/wiki/Barneveld_Centrum_railway_station" xr:uid="{4CBA5BB0-A050-1C4C-BA76-36D481429A69}"/>
-    <hyperlink ref="A47" r:id="rId46" tooltip="Barneveld Noord railway station" display="https://en.wikipedia.org/wiki/Barneveld_Noord_railway_station" xr:uid="{ADB16537-B975-6D4C-9B09-AA3E623BCAFB}"/>
-    <hyperlink ref="A48" r:id="rId47" tooltip="Barneveld Zuid railway station" display="https://en.wikipedia.org/wiki/Barneveld_Zuid_railway_station" xr:uid="{7EA0BCDE-A86C-444D-9757-6898E1E65392}"/>
-    <hyperlink ref="A49" r:id="rId48" tooltip="Bedum railway station" display="https://en.wikipedia.org/wiki/Bedum_railway_station" xr:uid="{10BD30DD-08B8-CE4A-980D-D4116E62ACBC}"/>
-    <hyperlink ref="A50" r:id="rId49" tooltip="Beek-Elsloo railway station" display="https://en.wikipedia.org/wiki/Beek-Elsloo_railway_station" xr:uid="{C2428D95-6264-A741-BED0-C189C865D75C}"/>
-    <hyperlink ref="A51" r:id="rId50" tooltip="Beesd railway station" display="https://en.wikipedia.org/wiki/Beesd_railway_station" xr:uid="{0D4BCB1F-4003-C842-BE61-20D83E1ECB0A}"/>
-    <hyperlink ref="A52" r:id="rId51" tooltip="Beilen railway station" display="https://en.wikipedia.org/wiki/Beilen_railway_station" xr:uid="{1AA7465D-2D7C-DA4A-A95D-07623708AD31}"/>
-    <hyperlink ref="A53" r:id="rId52" tooltip="Bergen op Zoom railway station" display="https://en.wikipedia.org/wiki/Bergen_op_Zoom_railway_station" xr:uid="{344B94FA-9DED-3D41-9A98-56A3DCAD05CC}"/>
-    <hyperlink ref="A54" r:id="rId53" tooltip="Best railway station" display="https://en.wikipedia.org/wiki/Best_railway_station" xr:uid="{6B51A8FA-3696-5D4E-ABD1-8BBC18D6168C}"/>
-    <hyperlink ref="A55" r:id="rId54" tooltip="Beverwijk railway station" display="https://en.wikipedia.org/wiki/Beverwijk_railway_station" xr:uid="{787600DC-EA05-9048-916A-430397958B90}"/>
-    <hyperlink ref="A56" r:id="rId55" tooltip="Bilthoven railway station" display="https://en.wikipedia.org/wiki/Bilthoven_railway_station" xr:uid="{2CFBA8C6-72A7-CF4E-B8DE-24E55D0055BE}"/>
-    <hyperlink ref="A57" r:id="rId56" tooltip="Blerick railway station" display="https://en.wikipedia.org/wiki/Blerick_railway_station" xr:uid="{26FE6E4A-AEB9-4448-98AA-29DF725F1A1B}"/>
-    <hyperlink ref="A58" r:id="rId57" tooltip="Bloemendaal railway station" display="https://en.wikipedia.org/wiki/Bloemendaal_railway_station" xr:uid="{DB97D972-540A-784F-B156-204A8751230E}"/>
-    <hyperlink ref="A59" r:id="rId58" tooltip="Bodegraven railway station" display="https://en.wikipedia.org/wiki/Bodegraven_railway_station" xr:uid="{B0D196B3-CCAB-7743-A4C7-206C0D9AAB1F}"/>
-    <hyperlink ref="A60" r:id="rId59" tooltip="Borne railway station" display="https://en.wikipedia.org/wiki/Borne_railway_station" xr:uid="{F9DFEEF5-A60A-E542-A953-F578132AB872}"/>
-    <hyperlink ref="A61" r:id="rId60" tooltip="Boskoop railway station" display="https://en.wikipedia.org/wiki/Boskoop_railway_station" xr:uid="{8CD075E3-2FEC-FA45-A4A2-4300D4CA41C4}"/>
-    <hyperlink ref="A62" r:id="rId61" tooltip="Boskoop Snijdelwijk railway station" display="https://en.wikipedia.org/wiki/Boskoop_Snijdelwijk_railway_station" xr:uid="{56A0E33B-6004-AA40-BC01-78DA6ED45AC2}"/>
-    <hyperlink ref="A63" r:id="rId62" tooltip="Bovenkarspel Flora railway station" display="https://en.wikipedia.org/wiki/Bovenkarspel_Flora_railway_station" xr:uid="{38B1072E-E4D7-3749-B386-28350CB5522E}"/>
-    <hyperlink ref="A64" r:id="rId63" tooltip="Bovenkarspel-Grootebroek railway station" display="https://en.wikipedia.org/wiki/Bovenkarspel-Grootebroek_railway_station" xr:uid="{43C6CCCE-2384-0343-900C-24E88D36E72F}"/>
-    <hyperlink ref="A65" r:id="rId64" tooltip="Boven Hardinxveld railway station" display="https://en.wikipedia.org/wiki/Boven_Hardinxveld_railway_station" xr:uid="{A3BEFB24-A31D-7049-A2AC-1C756870B284}"/>
-    <hyperlink ref="A66" r:id="rId65" tooltip="Boxmeer railway station" display="https://en.wikipedia.org/wiki/Boxmeer_railway_station" xr:uid="{20773C09-A3CE-6A45-894F-373A73AD2D80}"/>
-    <hyperlink ref="A67" r:id="rId66" tooltip="Boxtel railway station" display="https://en.wikipedia.org/wiki/Boxtel_railway_station" xr:uid="{D1E37EB4-3BE6-5D45-AD12-3C51055C862D}"/>
-    <hyperlink ref="A68" r:id="rId67" tooltip="Breda Prinsenbeek railway station" display="https://en.wikipedia.org/wiki/Breda_Prinsenbeek_railway_station" xr:uid="{31DA34A3-FC32-5E4E-8D28-F445A60D4995}"/>
-    <hyperlink ref="A69" r:id="rId68" tooltip="Breda railway station" display="https://en.wikipedia.org/wiki/Breda_railway_station" xr:uid="{D39954B4-EB08-704B-BF59-0D572BD97E18}"/>
-    <hyperlink ref="A70" r:id="rId69" tooltip="Breukelen railway station" display="https://en.wikipedia.org/wiki/Breukelen_railway_station" xr:uid="{4833D608-F8AA-8F4C-A2B9-35244097888A}"/>
-    <hyperlink ref="A71" r:id="rId70" tooltip="Brummen railway station" display="https://en.wikipedia.org/wiki/Brummen_railway_station" xr:uid="{3F54FCA9-B907-B741-8A89-BD09D7954E5A}"/>
-    <hyperlink ref="A72" r:id="rId71" tooltip="Buitenpost railway station" display="https://en.wikipedia.org/wiki/Buitenpost_railway_station" xr:uid="{3C94F1C0-6247-344A-B264-63189691CFD7}"/>
-    <hyperlink ref="A73" r:id="rId72" tooltip="Bunde railway station" display="https://en.wikipedia.org/wiki/Bunde_railway_station" xr:uid="{D87B149F-8361-2E44-8FBB-EC334602C2D3}"/>
-    <hyperlink ref="A74" r:id="rId73" tooltip="Bunnik railway station" display="https://en.wikipedia.org/wiki/Bunnik_railway_station" xr:uid="{F15147E8-B89E-814F-A74E-F884B34C0DD8}"/>
-    <hyperlink ref="A75" r:id="rId74" tooltip="Bussum Zuid railway station" display="https://en.wikipedia.org/wiki/Bussum_Zuid_railway_station" xr:uid="{87077025-0D0D-224D-9754-EC1DF3F87DE2}"/>
-    <hyperlink ref="A76" r:id="rId75" tooltip="Capelle Schollevaar railway station" display="https://en.wikipedia.org/wiki/Capelle_Schollevaar_railway_station" xr:uid="{684E2ED5-59C9-504F-87DD-D015F5702572}"/>
-    <hyperlink ref="A77" r:id="rId76" tooltip="Castricum railway station" display="https://en.wikipedia.org/wiki/Castricum_railway_station" xr:uid="{4F5A724B-2BBE-1248-AF5E-5DC306685C34}"/>
-    <hyperlink ref="A78" r:id="rId77" tooltip="Chevremont railway station" display="https://en.wikipedia.org/wiki/Chevremont_railway_station" xr:uid="{F502F71B-1AB3-8740-86D6-B6F4F549167A}"/>
-    <hyperlink ref="A79" r:id="rId78" tooltip="Coevorden railway station" display="https://en.wikipedia.org/wiki/Coevorden_railway_station" xr:uid="{04F4B516-757E-E941-8F0C-7D2BF6C8C822}"/>
-    <hyperlink ref="A80" r:id="rId79" tooltip="Cuijk railway station" display="https://en.wikipedia.org/wiki/Cuijk_railway_station" xr:uid="{CDBFC851-614C-384C-9DAD-95288B1925B1}"/>
-    <hyperlink ref="A81" r:id="rId80" tooltip="Culemborg railway station" display="https://en.wikipedia.org/wiki/Culemborg_railway_station" xr:uid="{800A4B1A-8255-3A42-A130-C75E8EE26A4B}"/>
-    <hyperlink ref="A82" r:id="rId81" tooltip="Daarlerveen railway station" display="https://en.wikipedia.org/wiki/Daarlerveen_railway_station" xr:uid="{A2F6F08B-DA18-B446-A1FC-A3C88BD9B34A}"/>
-    <hyperlink ref="A83" r:id="rId82" tooltip="Dalen railway station" display="https://en.wikipedia.org/wiki/Dalen_railway_station" xr:uid="{3DCECD4F-5741-594F-B62D-29604492708B}"/>
-    <hyperlink ref="A84" r:id="rId83" tooltip="Dalfsen railway station" display="https://en.wikipedia.org/wiki/Dalfsen_railway_station" xr:uid="{1C8DB078-4DD7-AB44-B1A1-9DC9D3356BC3}"/>
-    <hyperlink ref="A85" r:id="rId84" tooltip="De Vink railway station" display="https://en.wikipedia.org/wiki/De_Vink_railway_station" xr:uid="{A6F45B11-E418-DA49-896A-28AB2AAD89CC}"/>
-    <hyperlink ref="A86" r:id="rId85" tooltip="De Westereen railway station" display="https://en.wikipedia.org/wiki/De_Westereen_railway_station" xr:uid="{214AFE35-4880-2C40-87CB-D8008AA4D102}"/>
-    <hyperlink ref="A87" r:id="rId86" tooltip="Deinum railway station" display="https://en.wikipedia.org/wiki/Deinum_railway_station" xr:uid="{74F2DEA2-F3DA-3249-BB62-C5272B3F81F8}"/>
-    <hyperlink ref="A88" r:id="rId87" tooltip="Delden railway station" display="https://en.wikipedia.org/wiki/Delden_railway_station" xr:uid="{144C2C9A-E8B6-FE41-B260-9DB795899660}"/>
-    <hyperlink ref="A89" r:id="rId88" tooltip="Delft railway station" display="https://en.wikipedia.org/wiki/Delft_railway_station" xr:uid="{701BB67E-3B29-6841-8738-CE84598C93C2}"/>
-    <hyperlink ref="A90" r:id="rId89" tooltip="Delft Campus railway station" display="https://en.wikipedia.org/wiki/Delft_Campus_railway_station" xr:uid="{4A8ADB6F-4F4F-754C-B827-718E3B483F3F}"/>
-    <hyperlink ref="A91" r:id="rId90" tooltip="Delfzijl railway station" display="https://en.wikipedia.org/wiki/Delfzijl_railway_station" xr:uid="{D2D427C6-AFD7-7D4B-AE64-09F3FCB1DDC4}"/>
-    <hyperlink ref="A92" r:id="rId91" tooltip="Delfzijl West railway station" display="https://en.wikipedia.org/wiki/Delfzijl_West_railway_station" xr:uid="{10299BA0-7A03-5D41-9E1C-2575561B7CB1}"/>
-    <hyperlink ref="A93" r:id="rId92" tooltip="Den Dolder railway station" display="https://en.wikipedia.org/wiki/Den_Dolder_railway_station" xr:uid="{D81F7549-6CB2-4946-88C1-09E0B31078EA}"/>
-    <hyperlink ref="A94" r:id="rId93" tooltip="Den Haag Centraal railway station" display="https://en.wikipedia.org/wiki/Den_Haag_Centraal_railway_station" xr:uid="{2115280B-D95F-5B40-A831-35E5A067C461}"/>
-    <hyperlink ref="A95" r:id="rId94" tooltip="Den Haag Hollands Spoor railway station" display="https://en.wikipedia.org/wiki/Den_Haag_Hollands_Spoor_railway_station" xr:uid="{71FAC517-C2EA-F24B-ACC6-0AF1E3BFAF46}"/>
-    <hyperlink ref="A96" r:id="rId95" tooltip="Den Haag Laan van NOI railway station" display="https://en.wikipedia.org/wiki/Den_Haag_Laan_van_NOI_railway_station" xr:uid="{7C952E60-A4CD-0E46-8CF7-D381721165AD}"/>
-    <hyperlink ref="A97" r:id="rId96" tooltip="Den Haag Mariahoeve railway station" display="https://en.wikipedia.org/wiki/Den_Haag_Mariahoeve_railway_station" xr:uid="{3CEFFF04-B7DA-B64C-9B0D-88B33CAD9EB2}"/>
-    <hyperlink ref="A98" r:id="rId97" tooltip="Den Haag Moerwijk railway station" display="https://en.wikipedia.org/wiki/Den_Haag_Moerwijk_railway_station" xr:uid="{63593AEC-F065-A04A-8B39-BF4671D06F1C}"/>
-    <hyperlink ref="A99" r:id="rId98" tooltip="Den Haag Ypenburg railway station" display="https://en.wikipedia.org/wiki/Den_Haag_Ypenburg_railway_station" xr:uid="{140685F3-2277-D34A-B2D7-70558FD27AE5}"/>
-    <hyperlink ref="A100" r:id="rId99" tooltip="Den Helder railway station" display="https://en.wikipedia.org/wiki/Den_Helder_railway_station" xr:uid="{02F9ECF6-DA5F-0646-BC13-360DB6D91A35}"/>
-    <hyperlink ref="A101" r:id="rId100" tooltip="Den Helder Zuid railway station" display="https://en.wikipedia.org/wiki/Den_Helder_Zuid_railway_station" xr:uid="{7B25D92B-047D-544B-8FFA-70334939F376}"/>
-    <hyperlink ref="A102" r:id="rId101" tooltip="Deurne railway station" display="https://en.wikipedia.org/wiki/Deurne_railway_station" xr:uid="{3BD9C757-4FF9-2945-81B4-EFD86F0F310F}"/>
-    <hyperlink ref="A103" r:id="rId102" tooltip="Deventer Colmschate railway station" display="https://en.wikipedia.org/wiki/Deventer_Colmschate_railway_station" xr:uid="{A6871E21-29F5-1348-A1E3-08D63B966428}"/>
-    <hyperlink ref="A104" r:id="rId103" tooltip="Deventer railway station" display="https://en.wikipedia.org/wiki/Deventer_railway_station" xr:uid="{5B526A90-D0A9-914C-8D7B-10343E11C73E}"/>
-    <hyperlink ref="A105" r:id="rId104" tooltip="Didam railway station" display="https://en.wikipedia.org/wiki/Didam_railway_station" xr:uid="{5DF94F2E-6FDC-DF4C-89B1-E688A01A9EBA}"/>
-    <hyperlink ref="A106" r:id="rId105" tooltip="Diemen railway station" display="https://en.wikipedia.org/wiki/Diemen_railway_station" xr:uid="{756F9ACC-72A9-D245-B432-132893263845}"/>
-    <hyperlink ref="A107" r:id="rId106" tooltip="Diemen Zuid railway station" display="https://en.wikipedia.org/wiki/Diemen_Zuid_railway_station" xr:uid="{BF33AB4A-26EE-9448-BD59-4D612CC9166E}"/>
-    <hyperlink ref="A108" r:id="rId107" tooltip="Dieren railway station" display="https://en.wikipedia.org/wiki/Dieren_railway_station" xr:uid="{98DCBACC-93D7-7545-AA7D-FD0D67DB4D1D}"/>
-    <hyperlink ref="A109" r:id="rId108" tooltip="Doetinchem De Huet railway station" display="https://en.wikipedia.org/wiki/Doetinchem_De_Huet_railway_station" xr:uid="{371B958E-5E10-9841-9CBA-AB2C5C72D08E}"/>
-    <hyperlink ref="A110" r:id="rId109" tooltip="Doetinchem railway station" display="https://en.wikipedia.org/wiki/Doetinchem_railway_station" xr:uid="{E1105870-BBE3-674D-B79F-AE7A9E13202E}"/>
-    <hyperlink ref="A111" r:id="rId110" tooltip="Dordrecht railway station" display="https://en.wikipedia.org/wiki/Dordrecht_railway_station" xr:uid="{9AEBA7CF-2E69-1A43-92D1-4DDAEE8CD752}"/>
-    <hyperlink ref="A112" r:id="rId111" tooltip="Dordrecht Stadspolders railway station" display="https://en.wikipedia.org/wiki/Dordrecht_Stadspolders_railway_station" xr:uid="{EEB79F67-09FD-9E49-B2D3-DF0A9DD1547C}"/>
-    <hyperlink ref="A113" r:id="rId112" tooltip="Dordrecht Zuid railway station" display="https://en.wikipedia.org/wiki/Dordrecht_Zuid_railway_station" xr:uid="{DD8E61E4-D677-3943-B2FC-EB934A151E2B}"/>
-    <hyperlink ref="A114" r:id="rId113" tooltip="Driebergen-Zeist railway station" display="https://en.wikipedia.org/wiki/Driebergen-Zeist_railway_station" xr:uid="{2494690C-CCA8-8C40-A999-9426A26C6442}"/>
-    <hyperlink ref="A115" r:id="rId114" tooltip="Driehuis railway station" display="https://en.wikipedia.org/wiki/Driehuis_railway_station" xr:uid="{0DA262D8-CBB6-9F45-BC7C-928E6F8F272D}"/>
-    <hyperlink ref="A116" r:id="rId115" tooltip="Dronryp railway station" display="https://en.wikipedia.org/wiki/Dronryp_railway_station" xr:uid="{B9C34EE0-DB3D-964F-887C-B817E6D7BBCD}"/>
-    <hyperlink ref="A117" r:id="rId116" tooltip="Dronten railway station" display="https://en.wikipedia.org/wiki/Dronten_railway_station" xr:uid="{4628CA5F-E312-EE41-9317-E0E86C69B103}"/>
-    <hyperlink ref="A118" r:id="rId117" tooltip="Duiven railway station" display="https://en.wikipedia.org/wiki/Duiven_railway_station" xr:uid="{B3985644-4048-D045-AE8B-FE385FD023BA}"/>
-    <hyperlink ref="A119" r:id="rId118" tooltip="Duivendrecht railway station" display="https://en.wikipedia.org/wiki/Duivendrecht_railway_station" xr:uid="{FE426508-C61E-2540-BC17-D1B0ED8D0A0B}"/>
-    <hyperlink ref="A120" r:id="rId119" tooltip="Echt railway station" display="https://en.wikipedia.org/wiki/Echt_railway_station" xr:uid="{0BF17562-40CC-6C4E-945C-9CDAD9298103}"/>
-    <hyperlink ref="A121" r:id="rId120" tooltip="Ede Centrum railway station" display="https://en.wikipedia.org/wiki/Ede_Centrum_railway_station" xr:uid="{F62AFC19-B753-0E42-8716-FA2531202525}"/>
-    <hyperlink ref="A122" r:id="rId121" tooltip="Ede-Wageningen railway station" display="https://en.wikipedia.org/wiki/Ede-Wageningen_railway_station" xr:uid="{8B856DD6-D73B-7943-AEAA-BBB86FC1417A}"/>
-    <hyperlink ref="A123" r:id="rId122" tooltip="Eemshaven railway station" display="https://en.wikipedia.org/wiki/Eemshaven_railway_station" xr:uid="{B4CBC8E2-C7CB-B847-91A8-DE92B8FE28B1}"/>
-    <hyperlink ref="A124" r:id="rId123" tooltip="Eijsden railway station" display="https://en.wikipedia.org/wiki/Eijsden_railway_station" xr:uid="{C37C84C6-866F-0A46-9209-0FA5BB124294}"/>
-    <hyperlink ref="A125" r:id="rId124" tooltip="Eindhoven Centraal railway station" display="https://en.wikipedia.org/wiki/Eindhoven_Centraal_railway_station" xr:uid="{ACCC6F4E-B030-9745-AE5B-BBF91F4AF02E}"/>
-    <hyperlink ref="A126" r:id="rId125" tooltip="Eindhoven Stadion railway station" display="https://en.wikipedia.org/wiki/Eindhoven_Stadion_railway_station" xr:uid="{C3F9124E-593B-FC41-9895-2321BD1702BB}"/>
-    <hyperlink ref="A127" r:id="rId126" tooltip="Eindhoven Strijp-S railway station" display="https://en.wikipedia.org/wiki/Eindhoven_Strijp-S_railway_station" xr:uid="{9C67F3F1-4C71-0342-A3EF-01C8CF7640B7}"/>
-    <hyperlink ref="A128" r:id="rId127" tooltip="Elst railway station" display="https://en.wikipedia.org/wiki/Elst_railway_station" xr:uid="{25D50699-9C14-1140-8E0B-98CD55C77078}"/>
-    <hyperlink ref="A129" r:id="rId128" tooltip="Emmen railway station" display="https://en.wikipedia.org/wiki/Emmen_railway_station" xr:uid="{5CD8B587-53EF-2F41-8661-F4DCC6A42E03}"/>
-    <hyperlink ref="A130" r:id="rId129" tooltip="Emmen Zuid railway station" display="https://en.wikipedia.org/wiki/Emmen_Zuid_railway_station" xr:uid="{5E59209D-6708-1C42-8498-5758E9EC1A5D}"/>
-    <hyperlink ref="A131" r:id="rId130" tooltip="Enkhuizen railway station" display="https://en.wikipedia.org/wiki/Enkhuizen_railway_station" xr:uid="{23A17535-FBA7-8140-AFE0-9A5EAC58DA9D}"/>
-    <hyperlink ref="A132" r:id="rId131" tooltip="Enschede De Eschmarke railway station" display="https://en.wikipedia.org/wiki/Enschede_De_Eschmarke_railway_station" xr:uid="{10AD84FD-55FB-7E40-9994-0057E2D36B70}"/>
-    <hyperlink ref="A133" r:id="rId132" tooltip="Enschede Kennispark railway station" display="https://en.wikipedia.org/wiki/Enschede_Kennispark_railway_station" xr:uid="{FD56D7A5-22FD-694A-813C-A1207E587B95}"/>
-    <hyperlink ref="A134" r:id="rId133" tooltip="Enschede railway station" display="https://en.wikipedia.org/wiki/Enschede_railway_station" xr:uid="{2428BD14-CA4C-CC4D-9B73-EA6F48FFEABC}"/>
-    <hyperlink ref="A135" r:id="rId134" tooltip="Ermelo railway station" display="https://en.wikipedia.org/wiki/Ermelo_railway_station" xr:uid="{4656775F-4DEA-DE47-8F6D-B65797BA332A}"/>
-    <hyperlink ref="A136" r:id="rId135" tooltip="Etten-Leur railway station" display="https://en.wikipedia.org/wiki/Etten-Leur_railway_station" xr:uid="{43B995FE-EA8B-0D4D-BD3D-41CB505F50EB}"/>
-    <hyperlink ref="A137" r:id="rId136" tooltip="Eygelshoven Markt railway station" display="https://en.wikipedia.org/wiki/Eygelshoven_Markt_railway_station" xr:uid="{4AB65D0F-9B2A-BB46-AA22-03EE44C29DAD}"/>
-    <hyperlink ref="A138" r:id="rId137" tooltip="Eygelshoven railway station" display="https://en.wikipedia.org/wiki/Eygelshoven_railway_station" xr:uid="{C907F422-8E88-CB49-AC61-66B9EA53AA67}"/>
-    <hyperlink ref="A139" r:id="rId138" tooltip="Feanwâlden railway station" display="https://en.wikipedia.org/wiki/Feanw%C3%A2lden_railway_station" xr:uid="{AF913561-4DFF-CE4B-A48C-E30141C64612}"/>
-    <hyperlink ref="A140" r:id="rId139" tooltip="Franeker railway station" display="https://en.wikipedia.org/wiki/Franeker_railway_station" xr:uid="{51D3B38F-F68F-F747-BBEB-2E2F8BAFEF68}"/>
-    <hyperlink ref="A141" r:id="rId140" tooltip="Gaanderen railway station" display="https://en.wikipedia.org/wiki/Gaanderen_railway_station" xr:uid="{967E6D42-0716-954E-B4F4-9D3607A9EE6C}"/>
-    <hyperlink ref="A142" r:id="rId141" tooltip="Geldermalsen railway station" display="https://en.wikipedia.org/wiki/Geldermalsen_railway_station" xr:uid="{3A85CB0E-A34D-FF44-86A4-B39D96C8ED96}"/>
-    <hyperlink ref="A143" r:id="rId142" tooltip="Geldrop railway station" display="https://en.wikipedia.org/wiki/Geldrop_railway_station" xr:uid="{A5745DB1-F200-654E-95C1-068464143446}"/>
-    <hyperlink ref="A144" r:id="rId143" tooltip="Geleen Oost railway station" display="https://en.wikipedia.org/wiki/Geleen_Oost_railway_station" xr:uid="{7374335B-3682-834E-AA08-01C1901170B4}"/>
-    <hyperlink ref="A145" r:id="rId144" tooltip="Geleen-Lutterade railway station" display="https://en.wikipedia.org/wiki/Geleen-Lutterade_railway_station" xr:uid="{7A9D283D-39B8-5F4C-BE38-83DB95969168}"/>
-    <hyperlink ref="A146" r:id="rId145" tooltip="Gilze-Rijen railway station" display="https://en.wikipedia.org/wiki/Gilze-Rijen_railway_station" xr:uid="{777DEE2E-1080-3C49-8511-D769723D398D}"/>
-    <hyperlink ref="A147" r:id="rId146" tooltip="Glanerbrug railway station" display="https://en.wikipedia.org/wiki/Glanerbrug_railway_station" xr:uid="{F9730684-1950-0F47-9184-92654DFCDD9E}"/>
-    <hyperlink ref="A148" r:id="rId147" tooltip="Goes railway station" display="https://en.wikipedia.org/wiki/Goes_railway_station" xr:uid="{991528F9-A8FA-CE44-80A4-A0F1A1834FDC}"/>
-    <hyperlink ref="A149" r:id="rId148" tooltip="Goor railway station" display="https://en.wikipedia.org/wiki/Goor_railway_station" xr:uid="{B6825B1F-4C0B-F544-B7C2-0A153D4FE660}"/>
-    <hyperlink ref="A150" r:id="rId149" tooltip="Gorinchem railway station" display="https://en.wikipedia.org/wiki/Gorinchem_railway_station" xr:uid="{DD7931F5-8D79-5642-9157-4BF80CBE3BBD}"/>
-    <hyperlink ref="A151" r:id="rId150" tooltip="Gouda Goverwelle railway station" display="https://en.wikipedia.org/wiki/Gouda_Goverwelle_railway_station" xr:uid="{1F3991E2-29D8-1C4A-826D-8D55189CF4EA}"/>
-    <hyperlink ref="A152" r:id="rId151" tooltip="Gouda railway station" display="https://en.wikipedia.org/wiki/Gouda_railway_station" xr:uid="{BE3D907B-45B0-9F41-9707-B889CE854610}"/>
-    <hyperlink ref="A153" r:id="rId152" tooltip="Gramsbergen railway station" display="https://en.wikipedia.org/wiki/Gramsbergen_railway_station" xr:uid="{C5ADC452-BDB6-8E43-8BC0-E72385BEDA9E}"/>
-    <hyperlink ref="A154" r:id="rId153" tooltip="Grijpskerk railway station" display="https://en.wikipedia.org/wiki/Grijpskerk_railway_station" xr:uid="{BEA243F4-EF25-6A4C-80FB-8BBEF9437B3E}"/>
-    <hyperlink ref="A155" r:id="rId154" tooltip="Groningen Europapark railway station" display="https://en.wikipedia.org/wiki/Groningen_Europapark_railway_station" xr:uid="{F335E96D-3569-464F-902F-3740A4D5EE16}"/>
-    <hyperlink ref="A156" r:id="rId155" tooltip="Groningen Noord railway station" display="https://en.wikipedia.org/wiki/Groningen_Noord_railway_station" xr:uid="{BC5462C5-45FC-8E44-80F0-98E3BCCF0B50}"/>
-    <hyperlink ref="A157" r:id="rId156" tooltip="Groningen railway station" display="https://en.wikipedia.org/wiki/Groningen_railway_station" xr:uid="{A00838B8-1833-CB4F-9ED2-B6379886DC08}"/>
-    <hyperlink ref="A158" r:id="rId157" tooltip="Grou-Jirnsum railway station" display="https://en.wikipedia.org/wiki/Grou-Jirnsum_railway_station" xr:uid="{CB205BFF-8568-8D4F-90B8-0CE362D08ED3}"/>
-    <hyperlink ref="A159" r:id="rId158" tooltip="Haarlem railway station" display="https://en.wikipedia.org/wiki/Haarlem_railway_station" xr:uid="{2458FDE1-168E-AC45-BFDF-3D95D4C7CB4B}"/>
-    <hyperlink ref="A160" r:id="rId159" tooltip="Haarlem Spaarnwoude railway station" display="https://en.wikipedia.org/wiki/Haarlem_Spaarnwoude_railway_station" xr:uid="{8E770703-449E-314E-A252-5A82E9B8A399}"/>
-    <hyperlink ref="A161" r:id="rId160" tooltip="Halfweg-Zwanenburg railway station" display="https://en.wikipedia.org/wiki/Halfweg-Zwanenburg_railway_station" xr:uid="{9FB85912-0F07-D842-9C88-98DDB6456C82}"/>
-    <hyperlink ref="A162" r:id="rId161" tooltip="Hardenberg railway station" display="https://en.wikipedia.org/wiki/Hardenberg_railway_station" xr:uid="{BA90BAEB-D14C-1746-901C-43160DB8DFBF}"/>
-    <hyperlink ref="A163" r:id="rId162" tooltip="Harderwijk railway station" display="https://en.wikipedia.org/wiki/Harderwijk_railway_station" xr:uid="{64719FF7-42D6-364A-9A1C-3E66A32E494F}"/>
-    <hyperlink ref="A164" r:id="rId163" tooltip="Hardinxveld Blauwe Zoom railway station" display="https://en.wikipedia.org/wiki/Hardinxveld_Blauwe_Zoom_railway_station" xr:uid="{D0476CB8-ED8A-8847-BF28-BEC1EB9BF747}"/>
-    <hyperlink ref="A165" r:id="rId164" tooltip="Hardinxveld-Giessendam railway station" display="https://en.wikipedia.org/wiki/Hardinxveld-Giessendam_railway_station" xr:uid="{5D505EA8-CCB6-1148-A481-4147387BB295}"/>
-    <hyperlink ref="A166" r:id="rId165" tooltip="Haren (NL) railway station" display="https://en.wikipedia.org/wiki/Haren_(NL)_railway_station" xr:uid="{5014E1A0-8781-1B48-91A8-0A302AD2D676}"/>
-    <hyperlink ref="A167" r:id="rId166" tooltip="Harlingen Haven railway station" display="https://en.wikipedia.org/wiki/Harlingen_Haven_railway_station" xr:uid="{DD2EB647-A3A1-2140-A0C0-B1DA38AD4E2B}"/>
-    <hyperlink ref="A168" r:id="rId167" tooltip="Harlingen railway station" display="https://en.wikipedia.org/wiki/Harlingen_railway_station" xr:uid="{571EAA75-9DE5-664D-AB2B-0FC8A3D8B1CC}"/>
-    <hyperlink ref="A169" r:id="rId168" tooltip="Heemskerk railway station" display="https://en.wikipedia.org/wiki/Heemskerk_railway_station" xr:uid="{CEF796E5-55A9-8745-9DB0-D4560D5D79FF}"/>
-    <hyperlink ref="A170" r:id="rId169" tooltip="Heemstede-Aerdenhout railway station" display="https://en.wikipedia.org/wiki/Heemstede-Aerdenhout_railway_station" xr:uid="{63C4F4A6-7DB0-454A-BF28-FF350CD2C958}"/>
-    <hyperlink ref="A171" r:id="rId170" tooltip="Heerenveen IJsstadion railway station" display="https://en.wikipedia.org/wiki/Heerenveen_IJsstadion_railway_station" xr:uid="{72B7F619-611D-3746-B9BF-12272CA7DE24}"/>
-    <hyperlink ref="A172" r:id="rId171" tooltip="Heerenveen railway station" display="https://en.wikipedia.org/wiki/Heerenveen_railway_station" xr:uid="{C83D6C9C-C8C5-4B4F-8142-E2E996488709}"/>
-    <hyperlink ref="A173" r:id="rId172" tooltip="Heerhugowaard railway station" display="https://en.wikipedia.org/wiki/Heerhugowaard_railway_station" xr:uid="{FFE28644-17CA-E740-8DDC-788DB35EB6C3}"/>
-    <hyperlink ref="A174" r:id="rId173" tooltip="Heerlen railway station" display="https://en.wikipedia.org/wiki/Heerlen_railway_station" xr:uid="{00A5DB13-AEBE-E74C-842F-A9952D648E83}"/>
-    <hyperlink ref="A175" r:id="rId174" tooltip="Heerlen Woonboulevard railway station" display="https://en.wikipedia.org/wiki/Heerlen_Woonboulevard_railway_station" xr:uid="{6710FE2E-F7CD-C546-A7A3-146232CA01C6}"/>
-    <hyperlink ref="A176" r:id="rId175" tooltip="Heeze railway station" display="https://en.wikipedia.org/wiki/Heeze_railway_station" xr:uid="{9145E2CF-7E1C-C448-9B28-1329223C9EF3}"/>
-    <hyperlink ref="A177" r:id="rId176" tooltip="Heiloo railway station" display="https://en.wikipedia.org/wiki/Heiloo_railway_station" xr:uid="{4CAFABE4-A9FE-3446-92A9-12298D6B878A}"/>
-    <hyperlink ref="A178" r:id="rId177" tooltip="Heino railway station" display="https://en.wikipedia.org/wiki/Heino_railway_station" xr:uid="{A3106ECB-C061-BE4B-943E-D931D83CB1DD}"/>
-    <hyperlink ref="A179" r:id="rId178" tooltip="Helmond Brandevoort railway station" display="https://en.wikipedia.org/wiki/Helmond_Brandevoort_railway_station" xr:uid="{8B024B96-3118-7F49-BBBB-87BD13239458}"/>
-    <hyperlink ref="A180" r:id="rId179" tooltip="Helmond Brouwhuis railway station" display="https://en.wikipedia.org/wiki/Helmond_Brouwhuis_railway_station" xr:uid="{79DD4FB8-E2E6-024B-B705-A696518E0EA6}"/>
-    <hyperlink ref="A181" r:id="rId180" tooltip="Helmond railway station" display="https://en.wikipedia.org/wiki/Helmond_railway_station" xr:uid="{28D21C8D-074A-ED4B-9C49-F7F80C5AF68E}"/>
-    <hyperlink ref="A182" r:id="rId181" tooltip="Helmond 't Hout railway station" display="https://en.wikipedia.org/wiki/Helmond_%27t_Hout_railway_station" xr:uid="{FA993945-133A-D34A-9948-3532788CBA62}"/>
-    <hyperlink ref="A183" r:id="rId182" tooltip="Hemmen-Dodewaard railway station" display="https://en.wikipedia.org/wiki/Hemmen-Dodewaard_railway_station" xr:uid="{61C0E0AB-3A27-6F42-B9F4-B497B2AA2F4C}"/>
-    <hyperlink ref="A184" r:id="rId183" tooltip="Hengelo Gezondheidspark railway station" display="https://en.wikipedia.org/wiki/Hengelo_Gezondheidspark_railway_station" xr:uid="{2ABEC566-559F-1942-98BF-BCB9318E5C76}"/>
-    <hyperlink ref="A185" r:id="rId184" tooltip="Hengelo Oost railway station" display="https://en.wikipedia.org/wiki/Hengelo_Oost_railway_station" xr:uid="{0D8FE2F5-52EA-5B49-8ABB-1FFD2AEE029D}"/>
-    <hyperlink ref="A186" r:id="rId185" tooltip="Hengelo railway station" display="https://en.wikipedia.org/wiki/Hengelo_railway_station" xr:uid="{C7683D0B-BFAE-3A46-AAA0-6C56F2FAA79B}"/>
-    <hyperlink ref="A187" r:id="rId186" tooltip="Hillegom railway station" display="https://en.wikipedia.org/wiki/Hillegom_railway_station" xr:uid="{E178AAD2-059C-0B46-A629-26E701E46C00}"/>
-    <hyperlink ref="A188" r:id="rId187" tooltip="Hilversum Media Park railway station" display="https://en.wikipedia.org/wiki/Hilversum_Media_Park_railway_station" xr:uid="{52E2870A-2CD9-A74A-B869-611B98686488}"/>
-    <hyperlink ref="A189" r:id="rId188" tooltip="Hilversum railway station" display="https://en.wikipedia.org/wiki/Hilversum_railway_station" xr:uid="{C9C2FEBE-2E2F-3A47-AF10-AF9CBF8EDCD2}"/>
-    <hyperlink ref="A190" r:id="rId189" tooltip="Hilversum Sportpark railway station" display="https://en.wikipedia.org/wiki/Hilversum_Sportpark_railway_station" xr:uid="{AF6EA8EF-E407-7D4A-9951-4D1039033410}"/>
-    <hyperlink ref="A191" r:id="rId190" tooltip="Hindeloopen railway station" display="https://en.wikipedia.org/wiki/Hindeloopen_railway_station" xr:uid="{241B6E33-3317-1844-A952-EE13BBD1F370}"/>
-    <hyperlink ref="A192" r:id="rId191" tooltip="Hoensbroek railway station" display="https://en.wikipedia.org/wiki/Hoensbroek_railway_station" xr:uid="{8E67BAE0-40F6-BC4B-B329-85F54AB04D3A}"/>
-    <hyperlink ref="A193" r:id="rId192" tooltip="Hoevelaken railway station" display="https://en.wikipedia.org/wiki/Hoevelaken_railway_station" xr:uid="{3AD76E46-D22E-274B-BFD5-C8DB906C7A6D}"/>
-    <hyperlink ref="A194" r:id="rId193" tooltip="Hollandsche Rading railway station" display="https://en.wikipedia.org/wiki/Hollandsche_Rading_railway_station" xr:uid="{4219C02D-F710-9D4B-9F28-91A42A6D9738}"/>
-    <hyperlink ref="A195" r:id="rId194" tooltip="Holten railway station" display="https://en.wikipedia.org/wiki/Holten_railway_station" xr:uid="{65B1226E-B1C7-E24C-A74F-F5BFFEE41F14}"/>
-    <hyperlink ref="A196" r:id="rId195" tooltip="Hoofddorp railway station" display="https://en.wikipedia.org/wiki/Hoofddorp_railway_station" xr:uid="{257C9F26-7479-BB4D-910D-A073C3C95658}"/>
-    <hyperlink ref="A197" r:id="rId196" tooltip="Hoogeveen railway station" display="https://en.wikipedia.org/wiki/Hoogeveen_railway_station" xr:uid="{A13EA5E8-D5E1-DA45-B9DC-75DD93F6DA91}"/>
-    <hyperlink ref="A198" r:id="rId197" tooltip="Hoogezand-Sappemeer railway station" display="https://en.wikipedia.org/wiki/Hoogezand-Sappemeer_railway_station" xr:uid="{CDC00720-4ADB-4B49-A741-F1B9BA9B2B90}"/>
-    <hyperlink ref="A199" r:id="rId198" tooltip="Hoogkarspel railway station" display="https://en.wikipedia.org/wiki/Hoogkarspel_railway_station" xr:uid="{06A8A28C-13BA-1741-97D3-A6F92215D20E}"/>
-    <hyperlink ref="A200" r:id="rId199" tooltip="Hoorn Kersenboogerd railway station" display="https://en.wikipedia.org/wiki/Hoorn_Kersenboogerd_railway_station" xr:uid="{F58315CE-6172-E845-8646-DC9BFC432DF1}"/>
-    <hyperlink ref="A201" r:id="rId200" tooltip="Hoorn railway station" display="https://en.wikipedia.org/wiki/Hoorn_railway_station" xr:uid="{D360309C-ADD2-8049-834C-FFF1564F3A26}"/>
-    <hyperlink ref="A202" r:id="rId201" tooltip="Horst-Sevenum railway station" display="https://en.wikipedia.org/wiki/Horst-Sevenum_railway_station" xr:uid="{7419A813-FB96-8C4F-8E5F-A1DB919B5E59}"/>
-    <hyperlink ref="A203" r:id="rId202" tooltip="Houten Castellum railway station" display="https://en.wikipedia.org/wiki/Houten_Castellum_railway_station" xr:uid="{6419CED1-160E-D146-928A-4EF66D072F81}"/>
-    <hyperlink ref="A204" r:id="rId203" tooltip="Houten railway station" display="https://en.wikipedia.org/wiki/Houten_railway_station" xr:uid="{E2DDA06F-D44E-B54A-8809-56B32D15E4CF}"/>
-    <hyperlink ref="A205" r:id="rId204" tooltip="Houthem-Sint Gerlach railway station" display="https://en.wikipedia.org/wiki/Houthem-Sint_Gerlach_railway_station" xr:uid="{21D88E1D-8730-CC49-925D-5AF95E13F63B}"/>
-    <hyperlink ref="A206" r:id="rId205" tooltip="Hurdegaryp railway station" display="https://en.wikipedia.org/wiki/Hurdegaryp_railway_station" xr:uid="{B89F3EA9-5C7D-4C44-9EC9-CFBBB6E5C950}"/>
-    <hyperlink ref="A207" r:id="rId206" tooltip="IJlst railway station" display="https://en.wikipedia.org/wiki/IJlst_railway_station" xr:uid="{EA491DA8-A74A-8F42-B7F3-1B01F7C47605}"/>
-    <hyperlink ref="A208" r:id="rId207" tooltip="Kampen railway station" display="https://en.wikipedia.org/wiki/Kampen_railway_station" xr:uid="{7EAD7227-1E9C-1542-B228-801753EDCCD9}"/>
-    <hyperlink ref="A209" r:id="rId208" tooltip="Kampen Zuid railway station" display="https://en.wikipedia.org/wiki/Kampen_Zuid_railway_station" xr:uid="{3D2ACA02-BF0D-784A-BE41-BFA0DA5D9253}"/>
-    <hyperlink ref="A210" r:id="rId209" tooltip="Kapelle-Biezelinge railway station" display="https://en.wikipedia.org/wiki/Kapelle-Biezelinge_railway_station" xr:uid="{3AD44085-397B-7842-80AC-080896A09CB2}"/>
-    <hyperlink ref="A211" r:id="rId210" tooltip="Kerkrade Centrum railway station" display="https://en.wikipedia.org/wiki/Kerkrade_Centrum_railway_station" xr:uid="{9F8F4FB9-5BA9-1344-8959-227599DCE4B8}"/>
-    <hyperlink ref="A212" r:id="rId211" tooltip="Kesteren railway station" display="https://en.wikipedia.org/wiki/Kesteren_railway_station" xr:uid="{7C83CA82-A083-A54B-B118-46B0B22621C7}"/>
-    <hyperlink ref="A213" r:id="rId212" tooltip="Klarenbeek railway station" display="https://en.wikipedia.org/wiki/Klarenbeek_railway_station" xr:uid="{B58E5998-2011-9740-AFC3-7B6DE8DFF7F2}"/>
-    <hyperlink ref="A214" r:id="rId213" tooltip="Klimmen-Ransdaal railway station" display="https://en.wikipedia.org/wiki/Klimmen-Ransdaal_railway_station" xr:uid="{5638B350-552E-944D-B2AC-F9B9A9062DAC}"/>
-    <hyperlink ref="A215" r:id="rId214" tooltip="Koog aan de Zaan railway station" display="https://en.wikipedia.org/wiki/Koog_aan_de_Zaan_railway_station" xr:uid="{51D60288-CA95-A44E-BAC1-C83D7D76AE7C}"/>
-    <hyperlink ref="A216" r:id="rId215" tooltip="Koudum-Molkwerum railway station" display="https://en.wikipedia.org/wiki/Koudum-Molkwerum_railway_station" xr:uid="{18CC2309-97A8-9748-B0BD-6372CB3C1BA0}"/>
-    <hyperlink ref="A217" r:id="rId216" tooltip="Krabbendijke railway station" display="https://en.wikipedia.org/wiki/Krabbendijke_railway_station" xr:uid="{DA4D1FB6-F598-F14A-A9EE-63314B236307}"/>
-    <hyperlink ref="A218" r:id="rId217" tooltip="Krommenie-Assendelft railway station" display="https://en.wikipedia.org/wiki/Krommenie-Assendelft_railway_station" xr:uid="{354A932F-536D-FD41-8BBA-010EFA14D3E2}"/>
-    <hyperlink ref="A219" r:id="rId218" tooltip="Kropswolde railway station" display="https://en.wikipedia.org/wiki/Kropswolde_railway_station" xr:uid="{6BCF6E8A-1BDE-6040-8D1F-D964C3C9E4E1}"/>
-    <hyperlink ref="A220" r:id="rId219" tooltip="Kruiningen-Yerseke railway station" display="https://en.wikipedia.org/wiki/Kruiningen-Yerseke_railway_station" xr:uid="{850965F4-40DC-C74C-928E-AA23A3E84599}"/>
-    <hyperlink ref="A221" r:id="rId220" tooltip="Lage Zwaluwe railway station" display="https://en.wikipedia.org/wiki/Lage_Zwaluwe_railway_station" xr:uid="{EAF74481-4533-2C41-8344-E35893ABA33D}"/>
-    <hyperlink ref="A222" r:id="rId221" tooltip="Landgraaf railway station" display="https://en.wikipedia.org/wiki/Landgraaf_railway_station" xr:uid="{CD4105DD-B880-8A44-9C80-0CBEF3DAD689}"/>
-    <hyperlink ref="A223" r:id="rId222" tooltip="Lansingerland-Zoetermeer railway station" display="https://en.wikipedia.org/wiki/Lansingerland-Zoetermeer_railway_station" xr:uid="{B25D475C-D1DF-C64C-B3FB-06D94BA2541A}"/>
-    <hyperlink ref="A224" r:id="rId223" tooltip="Leerdam railway station" display="https://en.wikipedia.org/wiki/Leerdam_railway_station" xr:uid="{CBA9EB02-0F7B-DA42-A527-6B02136E8671}"/>
-    <hyperlink ref="A225" r:id="rId224" tooltip="Leeuwarden Camminghaburen railway station" display="https://en.wikipedia.org/wiki/Leeuwarden_Camminghaburen_railway_station" xr:uid="{8D7FE260-F68D-2249-A092-DE85A5257132}"/>
-    <hyperlink ref="A226" r:id="rId225" tooltip="Leeuwarden railway station" display="https://en.wikipedia.org/wiki/Leeuwarden_railway_station" xr:uid="{919D13A6-8957-7348-A4CA-E9801C381049}"/>
-    <hyperlink ref="A227" r:id="rId226" tooltip="Leiden Centraal railway station" display="https://en.wikipedia.org/wiki/Leiden_Centraal_railway_station" xr:uid="{33E6FF7E-EE3D-CC46-83F9-DBD40FEBBCE9}"/>
-    <hyperlink ref="A228" r:id="rId227" tooltip="Leiden Lammenschans railway station" display="https://en.wikipedia.org/wiki/Leiden_Lammenschans_railway_station" xr:uid="{76550E87-F927-BD4E-A895-051A4FB2CBC3}"/>
-    <hyperlink ref="A229" r:id="rId228" tooltip="Lelystad Centrum railway station" display="https://en.wikipedia.org/wiki/Lelystad_Centrum_railway_station" xr:uid="{29D1A0BA-1054-FE45-B004-CC1C78D62064}"/>
-    <hyperlink ref="A230" r:id="rId229" tooltip="Lichtenvoorde-Groenlo railway station" display="https://en.wikipedia.org/wiki/Lichtenvoorde-Groenlo_railway_station" xr:uid="{FEAB7E98-20BA-204B-A98D-D96D991B5FE9}"/>
-    <hyperlink ref="A231" r:id="rId230" tooltip="Lochem railway station" display="https://en.wikipedia.org/wiki/Lochem_railway_station" xr:uid="{6900D5AB-1F7C-4747-9ABF-C1E7E8BC0039}"/>
-    <hyperlink ref="A232" r:id="rId231" tooltip="Loppersum railway station" display="https://en.wikipedia.org/wiki/Loppersum_railway_station" xr:uid="{C96213AE-2765-E246-B33F-B90F09DEFF04}"/>
-    <hyperlink ref="A233" r:id="rId232" tooltip="Lunteren railway station" display="https://en.wikipedia.org/wiki/Lunteren_railway_station" xr:uid="{97C3C786-CCC9-EC42-840D-6D2BCBE1036C}"/>
-    <hyperlink ref="A234" r:id="rId233" tooltip="Maarheeze railway station" display="https://en.wikipedia.org/wiki/Maarheeze_railway_station" xr:uid="{9BDFA237-A74A-5D47-948F-45554886295E}"/>
-    <hyperlink ref="A235" r:id="rId234" tooltip="Maarn railway station" display="https://en.wikipedia.org/wiki/Maarn_railway_station" xr:uid="{95CDDDA2-0808-9C4F-92D0-0BE03E1ABFF1}"/>
-    <hyperlink ref="A236" r:id="rId235" tooltip="Maarssen railway station" display="https://en.wikipedia.org/wiki/Maarssen_railway_station" xr:uid="{A2B24E2F-612E-894F-8DF8-6994E256D298}"/>
-    <hyperlink ref="A237" r:id="rId236" tooltip="Maastricht Noord railway station" display="https://en.wikipedia.org/wiki/Maastricht_Noord_railway_station" xr:uid="{B95E0F83-6B22-634A-BBCF-F53C7609A13B}"/>
-    <hyperlink ref="A238" r:id="rId237" tooltip="Maastricht railway station" display="https://en.wikipedia.org/wiki/Maastricht_railway_station" xr:uid="{0E21DA3C-3D4E-424D-A9F9-96C720F6DA66}"/>
-    <hyperlink ref="A239" r:id="rId238" tooltip="Maastricht Randwyck railway station" display="https://en.wikipedia.org/wiki/Maastricht_Randwyck_railway_station" xr:uid="{4B76C87A-F00A-C04D-858D-A69C9EC72142}"/>
-    <hyperlink ref="A240" r:id="rId239" tooltip="Mantgum railway station" display="https://en.wikipedia.org/wiki/Mantgum_railway_station" xr:uid="{52D32D76-F394-F642-B57A-A58443461488}"/>
-    <hyperlink ref="A241" r:id="rId240" tooltip="Mariënberg railway station" display="https://en.wikipedia.org/wiki/Mari%C3%ABnberg_railway_station" xr:uid="{B3536E74-C518-3E41-A9E3-6CD8A78397F9}"/>
-    <hyperlink ref="A242" r:id="rId241" tooltip="Martenshoek railway station" display="https://en.wikipedia.org/wiki/Martenshoek_railway_station" xr:uid="{CA44F79A-BC60-7549-90F4-6C05F727881D}"/>
-    <hyperlink ref="A243" r:id="rId242" tooltip="Meerssen railway station" display="https://en.wikipedia.org/wiki/Meerssen_railway_station" xr:uid="{8147BDFB-6ACF-DD45-83B7-4D04ABEA56F2}"/>
-    <hyperlink ref="A244" r:id="rId243" tooltip="Meppel railway station" display="https://en.wikipedia.org/wiki/Meppel_railway_station" xr:uid="{2792351D-A0BD-EB41-B72A-2A39C8F9FA80}"/>
-    <hyperlink ref="A245" r:id="rId244" tooltip="Middelburg railway station" display="https://en.wikipedia.org/wiki/Middelburg_railway_station" xr:uid="{C9C97FA3-0A78-A544-8567-71FBC57C914F}"/>
-    <hyperlink ref="A246" r:id="rId245" tooltip="Mook-Molenhoek railway station" display="https://en.wikipedia.org/wiki/Mook-Molenhoek_railway_station" xr:uid="{C41F611F-9A8D-DD48-BD4E-05FE9BDFDBDF}"/>
-    <hyperlink ref="A247" r:id="rId246" tooltip="Naarden-Bussum railway station" display="https://en.wikipedia.org/wiki/Naarden-Bussum_railway_station" xr:uid="{59D3BE09-B3C7-B248-B2E0-D4FDA2BF43E7}"/>
-    <hyperlink ref="A248" r:id="rId247" tooltip="Nieuw Amsterdam railway station" display="https://en.wikipedia.org/wiki/Nieuw_Amsterdam_railway_station" xr:uid="{121D3055-C1F4-BD49-8981-ABFE6863FEA8}"/>
-    <hyperlink ref="A249" r:id="rId248" tooltip="Nieuwerkerk aan den IJssel railway station" display="https://en.wikipedia.org/wiki/Nieuwerkerk_aan_den_IJssel_railway_station" xr:uid="{6E635DDF-A736-8640-95B2-017B9E2F75FE}"/>
-    <hyperlink ref="A250" r:id="rId249" tooltip="Nieuw-Vennep railway station" display="https://en.wikipedia.org/wiki/Nieuw-Vennep_railway_station" xr:uid="{9BCFC797-39B8-BE40-8B4C-646DB794F2AE}"/>
-    <hyperlink ref="A251" r:id="rId250" tooltip="Nijkerk railway station" display="https://en.wikipedia.org/wiki/Nijkerk_railway_station" xr:uid="{96905225-3715-854A-8D11-1D3B178DFA3A}"/>
-    <hyperlink ref="A252" r:id="rId251" tooltip="Nijmegen Dukenburg railway station" display="https://en.wikipedia.org/wiki/Nijmegen_Dukenburg_railway_station" xr:uid="{91223894-E3F9-1741-9644-AB6324B22285}"/>
-    <hyperlink ref="A253" r:id="rId252" tooltip="Nijmegen Goffert railway station" display="https://en.wikipedia.org/wiki/Nijmegen_Goffert_railway_station" xr:uid="{59C06FE7-BF7F-DC49-8B90-D756DCB9C718}"/>
-    <hyperlink ref="A254" r:id="rId253" tooltip="Nijmegen Heyendaal railway station" display="https://en.wikipedia.org/wiki/Nijmegen_Heyendaal_railway_station" xr:uid="{43CA9997-1560-B64C-BFF7-DABC7BDCB9AF}"/>
-    <hyperlink ref="A255" r:id="rId254" tooltip="Nijmegen Lent railway station" display="https://en.wikipedia.org/wiki/Nijmegen_Lent_railway_station" xr:uid="{679C2BEA-D6C3-294C-A95D-1321D365F9F2}"/>
-    <hyperlink ref="A256" r:id="rId255" tooltip="Nijmegen railway station" display="https://en.wikipedia.org/wiki/Nijmegen_railway_station" xr:uid="{E9A06D6C-C78A-E04E-AD68-63E3D157F9A3}"/>
-    <hyperlink ref="A257" r:id="rId256" tooltip="Nijverdal railway station" display="https://en.wikipedia.org/wiki/Nijverdal_railway_station" xr:uid="{582B0186-3920-5A4E-9356-D05504360103}"/>
-    <hyperlink ref="A258" r:id="rId257" tooltip="Nunspeet railway station" display="https://en.wikipedia.org/wiki/Nunspeet_railway_station" xr:uid="{BE8B6602-F62C-9D47-9216-0904E9D75357}"/>
-    <hyperlink ref="A259" r:id="rId258" tooltip="Nuth railway station" display="https://en.wikipedia.org/wiki/Nuth_railway_station" xr:uid="{E777E500-AEC5-C044-B281-54D60B3E2EAF}"/>
-    <hyperlink ref="A260" r:id="rId259" tooltip="Obdam railway station" display="https://en.wikipedia.org/wiki/Obdam_railway_station" xr:uid="{1AEE1522-59A1-4044-99BB-901E771993E6}"/>
-    <hyperlink ref="A261" r:id="rId260" tooltip="Oisterwijk railway station" display="https://en.wikipedia.org/wiki/Oisterwijk_railway_station" xr:uid="{E597B088-043F-5D45-9993-FA21B429B348}"/>
-    <hyperlink ref="A262" r:id="rId261" tooltip="Oldenzaal railway station" display="https://en.wikipedia.org/wiki/Oldenzaal_railway_station" xr:uid="{D3C6054C-2185-B143-90E1-9995C54F802C}"/>
-    <hyperlink ref="A263" r:id="rId262" tooltip="Olst railway station" display="https://en.wikipedia.org/wiki/Olst_railway_station" xr:uid="{E7B87F8B-0B0C-564C-A027-CB5D60C1F027}"/>
-    <hyperlink ref="A264" r:id="rId263" tooltip="Ommen railway station" display="https://en.wikipedia.org/wiki/Ommen_railway_station" xr:uid="{97F90EC3-A3C6-E246-968F-C1EB84BDF994}"/>
-    <hyperlink ref="A265" r:id="rId264" tooltip="Oosterbeek railway station" display="https://en.wikipedia.org/wiki/Oosterbeek_railway_station" xr:uid="{EE7CD143-C1C1-9A48-87D0-279E1B4438C7}"/>
-    <hyperlink ref="A266" r:id="rId265" tooltip="Opheusden railway station" display="https://en.wikipedia.org/wiki/Opheusden_railway_station" xr:uid="{EF53772C-88EE-A94D-9798-164FB76E0E24}"/>
-    <hyperlink ref="A267" r:id="rId266" tooltip="Oss railway station" display="https://en.wikipedia.org/wiki/Oss_railway_station" xr:uid="{422064BF-B9CD-A74F-998B-8718A3DA7D93}"/>
-    <hyperlink ref="A268" r:id="rId267" tooltip="Oss West railway station" display="https://en.wikipedia.org/wiki/Oss_West_railway_station" xr:uid="{8F285B8F-A030-914B-852B-DE5E42BECCE6}"/>
-    <hyperlink ref="A269" r:id="rId268" tooltip="Oudenbosch railway station" display="https://en.wikipedia.org/wiki/Oudenbosch_railway_station" xr:uid="{057D1C07-7EDE-AD42-A5E3-7E66B620D5BB}"/>
-    <hyperlink ref="A270" r:id="rId269" tooltip="Overveen railway station" display="https://en.wikipedia.org/wiki/Overveen_railway_station" xr:uid="{82D96521-1376-E642-9231-B67BB4176C61}"/>
-    <hyperlink ref="A271" r:id="rId270" tooltip="Purmerend Overwhere railway station" display="https://en.wikipedia.org/wiki/Purmerend_Overwhere_railway_station" xr:uid="{E00037BD-F5DB-0C45-933E-DB6DDFE0ED7A}"/>
-    <hyperlink ref="A272" r:id="rId271" tooltip="Purmerend railway station" display="https://en.wikipedia.org/wiki/Purmerend_railway_station" xr:uid="{30185193-26E1-BB47-9FFF-1D631A47EC26}"/>
-    <hyperlink ref="A273" r:id="rId272" tooltip="Purmerend Weidevenne railway station" display="https://en.wikipedia.org/wiki/Purmerend_Weidevenne_railway_station" xr:uid="{C8FE8566-0471-4444-821D-8CBE741369AE}"/>
-    <hyperlink ref="A274" r:id="rId273" tooltip="Putten railway station" display="https://en.wikipedia.org/wiki/Putten_railway_station" xr:uid="{A1F6C3C5-3478-9A41-BEBD-ECD629A413EB}"/>
-    <hyperlink ref="A275" r:id="rId274" tooltip="Raalte railway station" display="https://en.wikipedia.org/wiki/Raalte_railway_station" xr:uid="{DDB1528C-861E-9D46-B0BF-418880CF93C2}"/>
-    <hyperlink ref="A276" r:id="rId275" tooltip="Ravenstein railway station" display="https://en.wikipedia.org/wiki/Ravenstein_railway_station" xr:uid="{08D139DC-8E9A-034A-9E56-9B2E20BE137F}"/>
-    <hyperlink ref="A277" r:id="rId276" tooltip="Reuver railway station" display="https://en.wikipedia.org/wiki/Reuver_railway_station" xr:uid="{F679CCFD-4A04-CB40-9A98-FBB42E75CB27}"/>
-    <hyperlink ref="A278" r:id="rId277" tooltip="Rheden railway station" display="https://en.wikipedia.org/wiki/Rheden_railway_station" xr:uid="{1ABFDA8F-2542-9846-9FB4-0AE8E9574F82}"/>
-    <hyperlink ref="A279" r:id="rId278" tooltip="Rhenen railway station" display="https://en.wikipedia.org/wiki/Rhenen_railway_station" xr:uid="{43E152DF-2552-6045-8D42-6A9E223DF417}"/>
-    <hyperlink ref="A280" r:id="rId279" tooltip="Rijssen railway station" display="https://en.wikipedia.org/wiki/Rijssen_railway_station" xr:uid="{33F37853-BFE6-C941-9FCF-E41EAE055D1F}"/>
-    <hyperlink ref="A281" r:id="rId280" tooltip="Rijswijk railway station" display="https://en.wikipedia.org/wiki/Rijswijk_railway_station" xr:uid="{D0A792C3-2267-6547-BD16-C342B5B07684}"/>
-    <hyperlink ref="A282" r:id="rId281" tooltip="Rilland-Bath railway station" display="https://en.wikipedia.org/wiki/Rilland-Bath_railway_station" xr:uid="{3016CF2F-90BB-C649-AE15-08C17636BCAB}"/>
-    <hyperlink ref="A283" r:id="rId282" tooltip="Roermond railway station" display="https://en.wikipedia.org/wiki/Roermond_railway_station" xr:uid="{67711FC9-DE5B-5441-86B8-39B7EAD4D1C6}"/>
-    <hyperlink ref="A284" r:id="rId283" tooltip="Roodeschool railway station" display="https://en.wikipedia.org/wiki/Roodeschool_railway_station" xr:uid="{163AEAF7-57A9-C243-AE5E-D52574973FBD}"/>
-    <hyperlink ref="A285" r:id="rId284" tooltip="Roosendaal railway station" display="https://en.wikipedia.org/wiki/Roosendaal_railway_station" xr:uid="{A650D548-395B-7E48-B2CA-820E02471178}"/>
-    <hyperlink ref="A286" r:id="rId285" tooltip="Rosmalen railway station" display="https://en.wikipedia.org/wiki/Rosmalen_railway_station" xr:uid="{18FF9629-CD62-A541-A6D3-0113DB40097C}"/>
-    <hyperlink ref="A287" r:id="rId286" tooltip="Rotterdam Alexander railway station" display="https://en.wikipedia.org/wiki/Rotterdam_Alexander_railway_station" xr:uid="{F11B78E2-1E04-864B-94D2-7C76E9A8ABBA}"/>
-    <hyperlink ref="A288" r:id="rId287" tooltip="Rotterdam Blaak railway station" display="https://en.wikipedia.org/wiki/Rotterdam_Blaak_railway_station" xr:uid="{4CD63557-4AD5-7A4F-B70D-DD6B270C9A6E}"/>
-    <hyperlink ref="A289" r:id="rId288" tooltip="Rotterdam Centraal railway station" display="https://en.wikipedia.org/wiki/Rotterdam_Centraal_railway_station" xr:uid="{2BFBCD79-768D-B942-AE4B-B47F1EF1ED6E}"/>
-    <hyperlink ref="A290" r:id="rId289" tooltip="Rotterdam Lombardijen railway station" display="https://en.wikipedia.org/wiki/Rotterdam_Lombardijen_railway_station" xr:uid="{A699572D-7389-0A4E-9C2A-1ACC279F95FF}"/>
-    <hyperlink ref="A291" r:id="rId290" tooltip="Rotterdam Noord railway station" display="https://en.wikipedia.org/wiki/Rotterdam_Noord_railway_station" xr:uid="{FDAC60A9-3F2E-4041-8675-A3D94F311704}"/>
-    <hyperlink ref="A292" r:id="rId291" tooltip="Rotterdam Stadion railway station" display="https://en.wikipedia.org/wiki/Rotterdam_Stadion_railway_station" xr:uid="{F240FDEE-C493-AF40-A49C-485C8C769819}"/>
-    <hyperlink ref="A293" r:id="rId292" tooltip="Rotterdam Zuid railway station" display="https://en.wikipedia.org/wiki/Rotterdam_Zuid_railway_station" xr:uid="{3063CC2D-D2DD-6943-9653-10916B56D9A5}"/>
-    <hyperlink ref="A294" r:id="rId293" tooltip="Ruurlo railway station" display="https://en.wikipedia.org/wiki/Ruurlo_railway_station" xr:uid="{00B5F46D-A9FA-CA41-B631-98CAE3C9BDB1}"/>
-    <hyperlink ref="A295" r:id="rId294" tooltip="Santpoort Noord railway station" display="https://en.wikipedia.org/wiki/Santpoort_Noord_railway_station" xr:uid="{93105D99-7576-FE4D-9C5B-F7F17950FEC7}"/>
-    <hyperlink ref="A296" r:id="rId295" tooltip="Santpoort Zuid railway station" display="https://en.wikipedia.org/wiki/Santpoort_Zuid_railway_station" xr:uid="{01177731-2735-CB4C-B4C0-2A82F1F7E0DC}"/>
-    <hyperlink ref="A297" r:id="rId296" tooltip="Sassenheim railway station" display="https://en.wikipedia.org/wiki/Sassenheim_railway_station" xr:uid="{14E27167-62A1-0741-A6D5-27313863ACB6}"/>
-    <hyperlink ref="A298" r:id="rId297" tooltip="Sauwerd railway station" display="https://en.wikipedia.org/wiki/Sauwerd_railway_station" xr:uid="{C4C52531-6D03-6C42-8DE8-6937583E8179}"/>
-    <hyperlink ref="A299" r:id="rId298" tooltip="Schagen railway station" display="https://en.wikipedia.org/wiki/Schagen_railway_station" xr:uid="{20F4E96F-C1A9-194B-B3C0-E97912ABC0DB}"/>
-    <hyperlink ref="A300" r:id="rId299" tooltip="Scheemda railway station" display="https://en.wikipedia.org/wiki/Scheemda_railway_station" xr:uid="{99A98489-46A7-B444-84C9-4D7327A672E2}"/>
-    <hyperlink ref="A301" r:id="rId300" tooltip="Schiedam Centrum railway station" display="https://en.wikipedia.org/wiki/Schiedam_Centrum_railway_station" xr:uid="{18859617-745A-EA41-A4CF-E14C48F6ADE4}"/>
-    <hyperlink ref="A302" r:id="rId301" tooltip="Schin op Geul railway station" display="https://en.wikipedia.org/wiki/Schin_op_Geul_railway_station" xr:uid="{5AD6D0DC-F50A-474D-8062-555B80D6444D}"/>
-    <hyperlink ref="A303" r:id="rId302" tooltip="Schinnen railway station" display="https://en.wikipedia.org/wiki/Schinnen_railway_station" xr:uid="{87836429-A1CF-6945-9173-D7EBBC6BF187}"/>
-    <hyperlink ref="A304" r:id="rId303" tooltip="Schiphol railway station" display="https://en.wikipedia.org/wiki/Schiphol_railway_station" xr:uid="{BC24A9F6-2E4C-1644-8552-9D75D2360552}"/>
-    <hyperlink ref="A305" r:id="rId304" tooltip="'s-Hertogenbosch Oost railway station" display="https://en.wikipedia.org/wiki/%27s-Hertogenbosch_Oost_railway_station" xr:uid="{FF90D243-FCE9-B146-9ED5-AE76D3787E09}"/>
-    <hyperlink ref="A306" r:id="rId305" tooltip="'s-Hertogenbosch railway station" display="https://en.wikipedia.org/wiki/%27s-Hertogenbosch_railway_station" xr:uid="{D06A55D9-B118-1949-8AA7-10578D63B183}"/>
-    <hyperlink ref="A307" r:id="rId306" tooltip="Sittard railway station" display="https://en.wikipedia.org/wiki/Sittard_railway_station" xr:uid="{4D3A39DD-A21A-9C41-838A-79B70D11EC1D}"/>
-    <hyperlink ref="A308" r:id="rId307" tooltip="Sliedrecht Baanhoek railway station" display="https://en.wikipedia.org/wiki/Sliedrecht_Baanhoek_railway_station" xr:uid="{2927BAC6-CE74-E644-B060-4CA284EEE364}"/>
-    <hyperlink ref="A309" r:id="rId308" tooltip="Sliedrecht railway station" display="https://en.wikipedia.org/wiki/Sliedrecht_railway_station" xr:uid="{4B289060-06A7-7B47-BA80-351D259A898A}"/>
-    <hyperlink ref="A310" r:id="rId309" tooltip="Sneek Noord railway station" display="https://en.wikipedia.org/wiki/Sneek_Noord_railway_station" xr:uid="{841640B7-957A-5048-B12B-A189FC2026A2}"/>
-    <hyperlink ref="A311" r:id="rId310" tooltip="Sneek railway station" display="https://en.wikipedia.org/wiki/Sneek_railway_station" xr:uid="{F64B80CF-528E-974F-A665-23EDA0575830}"/>
-    <hyperlink ref="A312" r:id="rId311" tooltip="Soest (Netherlands) railway station" display="https://en.wikipedia.org/wiki/Soest_(Netherlands)_railway_station" xr:uid="{768D991A-F302-D44A-BA58-0C2FD96B27BC}"/>
-    <hyperlink ref="A313" r:id="rId312" tooltip="Soest Zuid railway station" display="https://en.wikipedia.org/wiki/Soest_Zuid_railway_station" xr:uid="{CA78ED64-C878-7946-A351-F3F912BCC9E2}"/>
-    <hyperlink ref="A314" r:id="rId313" tooltip="Soestdijk railway station" display="https://en.wikipedia.org/wiki/Soestdijk_railway_station" xr:uid="{30875DAC-CA74-DB41-B453-6A2B358CE32D}"/>
-    <hyperlink ref="A315" r:id="rId314" tooltip="Spaubeek railway station" display="https://en.wikipedia.org/wiki/Spaubeek_railway_station" xr:uid="{606B1AA2-D4B1-F04D-A15D-D535E177292E}"/>
-    <hyperlink ref="A316" r:id="rId315" tooltip="Stavoren railway station" display="https://en.wikipedia.org/wiki/Stavoren_railway_station" xr:uid="{8193858A-DDCF-684A-A0BA-552067E38D93}"/>
-    <hyperlink ref="A317" r:id="rId316" tooltip="Stedum railway station" display="https://en.wikipedia.org/wiki/Stedum_railway_station" xr:uid="{1C8ED64C-A2F1-E84B-9DF9-42B948DCF8EC}"/>
-    <hyperlink ref="A318" r:id="rId317" tooltip="Steenwijk railway station" display="https://en.wikipedia.org/wiki/Steenwijk_railway_station" xr:uid="{DA41B9B8-7AA3-FC40-8E08-47EC69576E1F}"/>
-    <hyperlink ref="A319" r:id="rId318" tooltip="Susteren railway station" display="https://en.wikipedia.org/wiki/Susteren_railway_station" xr:uid="{B335140A-BDE4-8F40-82A9-92F596BCB5CC}"/>
-    <hyperlink ref="A320" r:id="rId319" tooltip="Swalmen railway station" display="https://en.wikipedia.org/wiki/Swalmen_railway_station" xr:uid="{E202AC29-2D90-A942-B83A-EE2E09FDD793}"/>
-    <hyperlink ref="A321" r:id="rId320" tooltip="'t Harde railway station" display="https://en.wikipedia.org/wiki/%27t_Harde_railway_station" xr:uid="{C941A552-E58E-4C41-99AC-45F42B740B1C}"/>
-    <hyperlink ref="A322" r:id="rId321" tooltip="Tegelen railway station" display="https://en.wikipedia.org/wiki/Tegelen_railway_station" xr:uid="{0B1E4409-5FEC-ED45-ABBF-E6A5399BB331}"/>
-    <hyperlink ref="A323" r:id="rId322" tooltip="Terborg railway station" display="https://en.wikipedia.org/wiki/Terborg_railway_station" xr:uid="{FE65961A-FB81-FF4A-A00F-B033A2852F91}"/>
-    <hyperlink ref="A324" r:id="rId323" tooltip="Tiel Passewaaij railway station" display="https://en.wikipedia.org/wiki/Tiel_Passewaaij_railway_station" xr:uid="{7040C459-CCD6-4049-9800-13E772741B73}"/>
-    <hyperlink ref="A325" r:id="rId324" tooltip="Tiel railway station" display="https://en.wikipedia.org/wiki/Tiel_railway_station" xr:uid="{54CD06DE-24C8-3545-9527-0BD69FD8FD46}"/>
-    <hyperlink ref="A326" r:id="rId325" tooltip="Tilburg railway station" display="https://en.wikipedia.org/wiki/Tilburg_railway_station" xr:uid="{EA548340-E7E5-E946-8DE9-9FCDBF593E4D}"/>
-    <hyperlink ref="A327" r:id="rId326" tooltip="Tilburg Reeshof railway station" display="https://en.wikipedia.org/wiki/Tilburg_Reeshof_railway_station" xr:uid="{AA258F72-70CF-DA40-9CEC-6A217BB38CAC}"/>
-    <hyperlink ref="A328" r:id="rId327" tooltip="Tilburg Universiteit railway station" display="https://en.wikipedia.org/wiki/Tilburg_Universiteit_railway_station" xr:uid="{17368D4C-2046-3C45-A1E1-60630AC53581}"/>
-    <hyperlink ref="A329" r:id="rId328" tooltip="Twello railway station" display="https://en.wikipedia.org/wiki/Twello_railway_station" xr:uid="{35B22E76-DA0E-6543-92F5-7C12E994F6D3}"/>
-    <hyperlink ref="A330" r:id="rId329" tooltip="Uitgeest railway station" display="https://en.wikipedia.org/wiki/Uitgeest_railway_station" xr:uid="{A221CFD0-6292-4747-AA09-C9DEB3784441}"/>
-    <hyperlink ref="A331" r:id="rId330" tooltip="Uithuizen railway station" display="https://en.wikipedia.org/wiki/Uithuizen_railway_station" xr:uid="{6143E3DC-165F-9547-A782-B1776C50DDA2}"/>
-    <hyperlink ref="A332" r:id="rId331" tooltip="Uithuizermeeden railway station" display="https://en.wikipedia.org/wiki/Uithuizermeeden_railway_station" xr:uid="{8AACAB4C-BCAC-9743-82E5-3545EF731664}"/>
-    <hyperlink ref="A333" r:id="rId332" tooltip="Usquert railway station" display="https://en.wikipedia.org/wiki/Usquert_railway_station" xr:uid="{3272F8D2-7E3B-2B44-AE6D-C4D45EACE2DB}"/>
-    <hyperlink ref="A334" r:id="rId333" tooltip="Utrecht Centraal railway station" display="https://en.wikipedia.org/wiki/Utrecht_Centraal_railway_station" xr:uid="{ECFC754C-DCAD-5540-919B-052602DBD11E}"/>
-    <hyperlink ref="A335" r:id="rId334" tooltip="Utrecht Leidsche Rijn railway station" display="https://en.wikipedia.org/wiki/Utrecht_Leidsche_Rijn_railway_station" xr:uid="{6E628082-B2C8-B84D-B376-243885B99EC6}"/>
-    <hyperlink ref="A336" r:id="rId335" tooltip="Utrecht Lunetten railway station" display="https://en.wikipedia.org/wiki/Utrecht_Lunetten_railway_station" xr:uid="{858998F0-CB7F-D345-A858-62E2B25D450D}"/>
-    <hyperlink ref="A337" r:id="rId336" tooltip="Utrecht Maliebaan railway station" display="https://en.wikipedia.org/wiki/Utrecht_Maliebaan_railway_station" xr:uid="{FD9CA26B-B2BE-F442-A71C-E76E20F55D36}"/>
-    <hyperlink ref="A338" r:id="rId337" tooltip="Utrecht Overvecht railway station" display="https://en.wikipedia.org/wiki/Utrecht_Overvecht_railway_station" xr:uid="{47D57A47-74CF-CE4C-B9EF-E2AE5DD154F7}"/>
-    <hyperlink ref="A339" r:id="rId338" tooltip="Utrecht Terwijde railway station" display="https://en.wikipedia.org/wiki/Utrecht_Terwijde_railway_station" xr:uid="{091A32DE-B285-4D40-A905-08554976B80D}"/>
-    <hyperlink ref="A340" r:id="rId339" tooltip="Utrecht Vaartsche Rijn railway station" display="https://en.wikipedia.org/wiki/Utrecht_Vaartsche_Rijn_railway_station" xr:uid="{BBE63CE1-644E-BE4F-9618-ABC1838DF3EB}"/>
-    <hyperlink ref="A341" r:id="rId340" tooltip="Utrecht Zuilen railway station" display="https://en.wikipedia.org/wiki/Utrecht_Zuilen_railway_station" xr:uid="{03F26646-5099-934F-B350-F483F42490CE}"/>
-    <hyperlink ref="A342" r:id="rId341" tooltip="Valkenburg railway station" display="https://en.wikipedia.org/wiki/Valkenburg_railway_station" xr:uid="{0655E895-6F33-7548-A7F1-685866F60993}"/>
-    <hyperlink ref="A343" r:id="rId342" tooltip="Varsseveld railway station" display="https://en.wikipedia.org/wiki/Varsseveld_railway_station" xr:uid="{FFE51FFB-0050-6045-B111-EE6CFFF220F2}"/>
-    <hyperlink ref="A344" r:id="rId343" tooltip="Veendam railway station" display="https://en.wikipedia.org/wiki/Veendam_railway_station" xr:uid="{5C6F076C-535C-9641-AF88-DA4B1224A164}"/>
-    <hyperlink ref="A345" r:id="rId344" tooltip="Veenendaal Centrum railway station" display="https://en.wikipedia.org/wiki/Veenendaal_Centrum_railway_station" xr:uid="{9B81E77D-7D95-5B40-BD5B-1612CDDF419B}"/>
-    <hyperlink ref="A346" r:id="rId345" tooltip="Veenendaal West railway station" display="https://en.wikipedia.org/wiki/Veenendaal_West_railway_station" xr:uid="{ADC58407-32CC-1142-95A9-4EF2265DC6C6}"/>
-    <hyperlink ref="A347" r:id="rId346" tooltip="Veenendaal-De Klomp railway station" display="https://en.wikipedia.org/wiki/Veenendaal-De_Klomp_railway_station" xr:uid="{1076898C-7DA4-1846-87E3-5B1EC121D8FA}"/>
-    <hyperlink ref="A348" r:id="rId347" tooltip="Velp railway station" display="https://en.wikipedia.org/wiki/Velp_railway_station" xr:uid="{D847048D-4F6E-7245-85F0-7C259736F886}"/>
-    <hyperlink ref="A349" r:id="rId348" tooltip="Venlo railway station" display="https://en.wikipedia.org/wiki/Venlo_railway_station" xr:uid="{79413941-FC44-5E49-80F2-EED1CC7BCEA7}"/>
-    <hyperlink ref="A350" r:id="rId349" tooltip="Venray railway station" display="https://en.wikipedia.org/wiki/Venray_railway_station" xr:uid="{80525AEA-2F93-374E-BCF0-71C964E2141D}"/>
-    <hyperlink ref="A351" r:id="rId350" tooltip="Vierlingsbeek railway station" display="https://en.wikipedia.org/wiki/Vierlingsbeek_railway_station" xr:uid="{6C944163-79F5-1A47-8044-296A9AA5C2B5}"/>
-    <hyperlink ref="A352" r:id="rId351" tooltip="Vleuten railway station" display="https://en.wikipedia.org/wiki/Vleuten_railway_station" xr:uid="{5FE43320-172A-7641-91E1-9591FA6F1543}"/>
-    <hyperlink ref="A353" r:id="rId352" tooltip="Vlissingen railway station" display="https://en.wikipedia.org/wiki/Vlissingen_railway_station" xr:uid="{57543843-7217-EA40-8366-E425FF067DC5}"/>
-    <hyperlink ref="A354" r:id="rId353" tooltip="Vlissingen Souburg railway station" display="https://en.wikipedia.org/wiki/Vlissingen_Souburg_railway_station" xr:uid="{20112739-8F1F-7B40-8916-6BF5BC481C5E}"/>
-    <hyperlink ref="A355" r:id="rId354" tooltip="Voerendaal railway station" display="https://en.wikipedia.org/wiki/Voerendaal_railway_station" xr:uid="{905155B9-B52C-FB4C-992D-46D968935673}"/>
-    <hyperlink ref="A356" r:id="rId355" tooltip="Voorburg railway station" display="https://en.wikipedia.org/wiki/Voorburg_railway_station" xr:uid="{27C396F1-D4E9-FE45-8647-3445F692767A}"/>
-    <hyperlink ref="A357" r:id="rId356" tooltip="Voorhout railway station" display="https://en.wikipedia.org/wiki/Voorhout_railway_station" xr:uid="{CA286893-1549-1F49-9FC3-9A4665377D83}"/>
-    <hyperlink ref="A358" r:id="rId357" tooltip="Voorschoten railway station" display="https://en.wikipedia.org/wiki/Voorschoten_railway_station" xr:uid="{7129085E-37E3-CC4F-90A1-ACCE1ABF887E}"/>
-    <hyperlink ref="A359" r:id="rId358" tooltip="Voorst-Empe railway station" display="https://en.wikipedia.org/wiki/Voorst-Empe_railway_station" xr:uid="{F60DB35A-575D-464D-AB81-13DAB371DF95}"/>
-    <hyperlink ref="A360" r:id="rId359" tooltip="Vorden railway station" display="https://en.wikipedia.org/wiki/Vorden_railway_station" xr:uid="{91A6E9EE-6277-4549-842B-F977AD164045}"/>
-    <hyperlink ref="A361" r:id="rId360" tooltip="Vriezenveen railway station" display="https://en.wikipedia.org/wiki/Vriezenveen_railway_station" xr:uid="{6216A7CB-8C28-8B4D-9CB0-C460EDA01EA0}"/>
-    <hyperlink ref="A362" r:id="rId361" tooltip="Vroomshoop railway station" display="https://en.wikipedia.org/wiki/Vroomshoop_railway_station" xr:uid="{7E4B7A52-395A-BD4E-A7F1-DE52CE95206F}"/>
-    <hyperlink ref="A363" r:id="rId362" tooltip="Vught railway station" display="https://en.wikipedia.org/wiki/Vught_railway_station" xr:uid="{27E89718-B9E5-9842-8714-E16E1E93EE27}"/>
-    <hyperlink ref="A364" r:id="rId363" tooltip="Waddinxveen Noord railway station" display="https://en.wikipedia.org/wiki/Waddinxveen_Noord_railway_station" xr:uid="{41830595-8976-E042-AD05-83AE05AA8017}"/>
-    <hyperlink ref="A365" r:id="rId364" tooltip="Waddinxveen railway station" display="https://en.wikipedia.org/wiki/Waddinxveen_railway_station" xr:uid="{13247FD3-CB03-6F44-AA30-5F9E8311F6A5}"/>
-    <hyperlink ref="A366" r:id="rId365" tooltip="Waddinxveen Triangel railway station" display="https://en.wikipedia.org/wiki/Waddinxveen_Triangel_railway_station" xr:uid="{50675AEF-1B4F-F24A-BEF7-0C44625D8E89}"/>
-    <hyperlink ref="A367" r:id="rId366" tooltip="Warffum railway station" display="https://en.wikipedia.org/wiki/Warffum_railway_station" xr:uid="{AF5921AD-5DA3-8240-85E8-BDD87DC9E4BA}"/>
-    <hyperlink ref="A368" r:id="rId367" tooltip="Weert railway station" display="https://en.wikipedia.org/wiki/Weert_railway_station" xr:uid="{F6B232CE-142F-3648-A8B9-AEF78F4F9959}"/>
-    <hyperlink ref="A369" r:id="rId368" tooltip="Weesp railway station" display="https://en.wikipedia.org/wiki/Weesp_railway_station" xr:uid="{F2FC3821-A39C-CE4E-AEDF-2B96AB06086F}"/>
-    <hyperlink ref="A370" r:id="rId369" tooltip="Wehl railway station" display="https://en.wikipedia.org/wiki/Wehl_railway_station" xr:uid="{46673E40-55CB-C346-9E80-0CF601CF6BD3}"/>
-    <hyperlink ref="A371" r:id="rId370" tooltip="Westervoort railway station" display="https://en.wikipedia.org/wiki/Westervoort_railway_station" xr:uid="{11070B99-3CA3-4543-8559-3391BAA67BAC}"/>
-    <hyperlink ref="A372" r:id="rId371" tooltip="Wezep railway station" display="https://en.wikipedia.org/wiki/Wezep_railway_station" xr:uid="{EECC0348-65DD-9C42-AE01-DDD541794CA9}"/>
-    <hyperlink ref="A373" r:id="rId372" tooltip="Wierden railway station" display="https://en.wikipedia.org/wiki/Wierden_railway_station" xr:uid="{D87E4D19-87D7-CD48-8B5D-EBCAFA787099}"/>
-    <hyperlink ref="A374" r:id="rId373" tooltip="Wijchen railway station" display="https://en.wikipedia.org/wiki/Wijchen_railway_station" xr:uid="{FFE1F94D-E59B-2E48-9A19-4596BFE5209C}"/>
-    <hyperlink ref="A375" r:id="rId374" tooltip="Wijhe railway station" display="https://en.wikipedia.org/wiki/Wijhe_railway_station" xr:uid="{FDE7015C-201B-154F-A477-1EF26F61CFCB}"/>
-    <hyperlink ref="A376" r:id="rId375" tooltip="Winschoten railway station" display="https://en.wikipedia.org/wiki/Winschoten_railway_station" xr:uid="{9C61BBBC-7DA0-D14C-BAF5-ACC361036731}"/>
-    <hyperlink ref="A377" r:id="rId376" tooltip="Winsum railway station" display="https://en.wikipedia.org/wiki/Winsum_railway_station" xr:uid="{5A908DD9-70E0-7C43-84F1-E97F40697C91}"/>
-    <hyperlink ref="A378" r:id="rId377" tooltip="Winterswijk railway station" display="https://en.wikipedia.org/wiki/Winterswijk_railway_station" xr:uid="{727EA64F-2793-8D43-ADEB-B93ABCCD6E71}"/>
-    <hyperlink ref="A379" r:id="rId378" tooltip="Winterswijk West railway station" display="https://en.wikipedia.org/wiki/Winterswijk_West_railway_station" xr:uid="{9DC36AC8-49D0-0840-8742-662D0079205E}"/>
-    <hyperlink ref="A380" r:id="rId379" tooltip="Woerden railway station" display="https://en.wikipedia.org/wiki/Woerden_railway_station" xr:uid="{6BA49736-8F6F-D942-85E7-9AF20C1E9750}"/>
-    <hyperlink ref="A381" r:id="rId380" tooltip="Wolfheze railway station" display="https://en.wikipedia.org/wiki/Wolfheze_railway_station" xr:uid="{7AF1FE15-CFAF-AC49-9716-07EFEA2733CC}"/>
-    <hyperlink ref="A382" r:id="rId381" tooltip="Wolvega railway station" display="https://en.wikipedia.org/wiki/Wolvega_railway_station" xr:uid="{72E7E6A7-E145-4949-9C6B-59007105FF27}"/>
-    <hyperlink ref="A383" r:id="rId382" tooltip="Workum railway station" display="https://en.wikipedia.org/wiki/Workum_railway_station" xr:uid="{AA74C50E-BFEF-ED4B-AC5C-FFC35FA3F212}"/>
-    <hyperlink ref="A384" r:id="rId383" tooltip="Wormerveer railway station" display="https://en.wikipedia.org/wiki/Wormerveer_railway_station" xr:uid="{8F2496CA-7C1E-1943-B440-65B5DF59755F}"/>
-    <hyperlink ref="A385" r:id="rId384" tooltip="Zaandam Kogerveld railway station" display="https://en.wikipedia.org/wiki/Zaandam_Kogerveld_railway_station" xr:uid="{EA5076E7-3563-BC4B-98EB-442FDB999570}"/>
-    <hyperlink ref="A386" r:id="rId385" tooltip="Zaandam railway station" display="https://en.wikipedia.org/wiki/Zaandam_railway_station" xr:uid="{186470AA-9242-3A41-AFAE-2B2B1AAA6B22}"/>
-    <hyperlink ref="A387" r:id="rId386" tooltip="Zaandijk Zaanse Schans railway station" display="https://en.wikipedia.org/wiki/Zaandijk_Zaanse_Schans_railway_station" xr:uid="{20505712-5A2F-1F45-825C-B958AB7548DE}"/>
-    <hyperlink ref="A388" r:id="rId387" tooltip="Zaltbommel railway station" display="https://en.wikipedia.org/wiki/Zaltbommel_railway_station" xr:uid="{19DA53E3-7ACB-774C-8CD8-6116B391F532}"/>
-    <hyperlink ref="A389" r:id="rId388" tooltip="Zandvoort aan Zee railway station" display="https://en.wikipedia.org/wiki/Zandvoort_aan_Zee_railway_station" xr:uid="{4F52C0E0-7E37-D94E-955B-9E6B5FC0951A}"/>
-    <hyperlink ref="A390" r:id="rId389" tooltip="Zetten-Andelst railway station" display="https://en.wikipedia.org/wiki/Zetten-Andelst_railway_station" xr:uid="{3B04E923-9343-F54E-B3D0-E52C17244321}"/>
-    <hyperlink ref="A391" r:id="rId390" tooltip="Zevenaar railway station" display="https://en.wikipedia.org/wiki/Zevenaar_railway_station" xr:uid="{2AD99520-0E73-514C-8ED0-EB68B46D34F2}"/>
-    <hyperlink ref="A392" r:id="rId391" tooltip="Zevenbergen railway station" display="https://en.wikipedia.org/wiki/Zevenbergen_railway_station" xr:uid="{3BCF74C9-9945-C547-8CBD-24CEC9563197}"/>
-    <hyperlink ref="A393" r:id="rId392" tooltip="Zoetermeer Oost railway station" display="https://en.wikipedia.org/wiki/Zoetermeer_Oost_railway_station" xr:uid="{F5C57EBB-9ECE-484B-A083-52E9DA5B6C47}"/>
-    <hyperlink ref="A394" r:id="rId393" tooltip="Zoetermeer railway station" display="https://en.wikipedia.org/wiki/Zoetermeer_railway_station" xr:uid="{CD24D5BC-9644-FB4A-9658-0E5BEE023E5E}"/>
-    <hyperlink ref="A395" r:id="rId394" tooltip="Zuidbroek railway station" display="https://en.wikipedia.org/wiki/Zuidbroek_railway_station" xr:uid="{F2058308-8214-444D-8156-3952CF86DDB2}"/>
-    <hyperlink ref="A396" r:id="rId395" tooltip="Zuidhorn railway station" display="https://en.wikipedia.org/wiki/Zuidhorn_railway_station" xr:uid="{7D51BE25-CE44-2E42-A5D4-3EB819593448}"/>
-    <hyperlink ref="A397" r:id="rId396" tooltip="Zutphen railway station" display="https://en.wikipedia.org/wiki/Zutphen_railway_station" xr:uid="{CA86BA90-4F2C-1E4C-B991-B4B4B6B3B8C8}"/>
-    <hyperlink ref="A398" r:id="rId397" tooltip="Zwijndrecht railway station" display="https://en.wikipedia.org/wiki/Zwijndrecht_railway_station" xr:uid="{02322B3E-65E6-474A-BB04-B1E7D51D358A}"/>
-    <hyperlink ref="A399" r:id="rId398" tooltip="Zwolle railway station" display="https://en.wikipedia.org/wiki/Zwolle_railway_station" xr:uid="{1F5E14D5-3C67-D84A-8162-1CC0D93051BD}"/>
-    <hyperlink ref="A400" r:id="rId399" tooltip="Zwolle Stadshagen railway station" display="https://en.wikipedia.org/wiki/Zwolle_Stadshagen_railway_station" xr:uid="{24560A7C-75D3-5C4D-9FCE-636DE6B2FB32}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data_stations_codes.xlsx
+++ b/data/data_stations_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laure/Desktop/TUDelft/Advanced Data Science/Projet repository/Group2_NS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69990592-FC4B-854B-970D-6D483F1FA5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D01E4-F0D8-A74D-B247-510BBE70368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A41985DB-FFA8-7C47-94F8-1FC7A1C221F2}"/>
   </bookViews>
@@ -569,9 +569,6 @@
     <t>Delft Campus</t>
   </si>
   <si>
-    <t>Dtz</t>
-  </si>
-  <si>
     <t>Delfzijl</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
     <t>Gvc</t>
   </si>
   <si>
-    <t>Den Haag Hollands Spoor</t>
-  </si>
-  <si>
     <t>Gv</t>
   </si>
   <si>
@@ -1526,9 +1520,6 @@
     <t>Nwk</t>
   </si>
   <si>
-    <t>Nieuw-Vennep</t>
-  </si>
-  <si>
     <t>Nvp</t>
   </si>
   <si>
@@ -2436,6 +2427,15 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Den Haag HS</t>
+  </si>
+  <si>
+    <t>Dtcp</t>
+  </si>
+  <si>
+    <t>Nieuw Vennep</t>
   </si>
 </sst>
 </file>
@@ -2483,11 +2483,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2824,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941A2F59-BD94-744C-B8B5-64C458562015}">
   <dimension ref="A1:B400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2835,14 +2834,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2850,7 +2849,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2858,7 +2857,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2866,7 +2865,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2874,7 +2873,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2882,7 +2881,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2890,7 +2889,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2898,7 +2897,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2906,7 +2905,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2914,7 +2913,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2922,7 +2921,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2930,7 +2929,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2938,7 +2937,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2946,7 +2945,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2954,7 +2953,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2962,7 +2961,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2970,7 +2969,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2978,7 +2977,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2986,7 +2985,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2994,7 +2993,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3002,7 +3001,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3010,7 +3009,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3018,7 +3017,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3026,7 +3025,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3034,7 +3033,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3042,7 +3041,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3050,7 +3049,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3058,7 +3057,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3066,7 +3065,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3074,7 +3073,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3082,7 +3081,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3090,7 +3089,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3098,7 +3097,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3106,7 +3105,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3114,7 +3113,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3122,7 +3121,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3130,7 +3129,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3138,7 +3137,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3146,7 +3145,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3154,7 +3153,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3162,7 +3161,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3170,7 +3169,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3178,7 +3177,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3186,7 +3185,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3194,7 +3193,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3202,7 +3201,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3210,7 +3209,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3218,7 +3217,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3226,7 +3225,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3234,7 +3233,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3242,7 +3241,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3250,7 +3249,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3258,7 +3257,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3266,7 +3265,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3274,7 +3273,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3282,7 +3281,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3290,7 +3289,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3298,7 +3297,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3306,7 +3305,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3314,7 +3313,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3322,7 +3321,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3330,7 +3329,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3338,7 +3337,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3346,7 +3345,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3354,7 +3353,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3362,7 +3361,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3370,7 +3369,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3378,7 +3377,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3386,7 +3385,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3394,7 +3393,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" t="s">
         <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3402,7 +3401,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="A72" t="s">
         <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3410,7 +3409,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3418,7 +3417,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3426,7 +3425,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+      <c r="A75" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3434,7 +3433,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+      <c r="A76" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3442,7 +3441,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3450,7 +3449,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3458,7 +3457,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+      <c r="A79" t="s">
         <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3466,7 +3465,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3474,7 +3473,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>158</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3482,7 +3481,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>160</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3490,7 +3489,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>162</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3498,7 +3497,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3506,7 +3505,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3514,7 +3513,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="A86" t="s">
         <v>168</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3522,7 +3521,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>170</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3530,7 +3529,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>172</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3538,7 +3537,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
         <v>174</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3546,2491 +3545,2491 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+      <c r="A90" t="s">
         <v>176</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="2" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="2" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B93" s="2" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="2" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>797</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>212</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>214</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>220</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>222</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>224</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>226</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>228</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>230</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>232</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>234</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>236</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>238</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>242</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>246</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>248</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>252</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>254</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>256</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>258</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>262</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>264</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>266</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>268</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>278</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>280</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>282</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>284</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>286</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>288</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>290</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>292</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>294</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>298</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>318</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>320</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>324</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>326</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>328</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>330</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>332</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>334</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>340</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>342</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>346</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>348</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>350</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>352</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>354</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>360</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>362</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>364</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>372</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>376</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>378</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>380</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>382</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>384</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>386</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>388</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>390</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>394</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>396</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>398</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>400</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>402</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>404</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>406</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>408</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>410</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>412</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>414</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>416</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>418</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>420</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>422</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>424</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>426</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>428</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>430</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>432</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>434</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>438</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>440</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>442</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>444</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>446</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>448</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>450</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>452</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>454</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>456</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>458</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>460</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>462</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>464</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>466</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>468</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>470</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>472</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>474</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>476</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>478</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>480</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>482</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>484</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>486</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>488</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>490</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>492</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>799</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B249" s="2" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B250" s="2" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
+      <c r="B252" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B251" s="2" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B252" s="2" t="s">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
+      <c r="B254" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B253" s="2" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B254" s="2" t="s">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+      <c r="B256" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B255" s="2" t="s">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
+      <c r="B257" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B256" s="2" t="s">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
+      <c r="B258" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B257" s="2" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B258" s="2" t="s">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+      <c r="B260" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B259" s="2" t="s">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
+      <c r="B261" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B260" s="2" t="s">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
+      <c r="B262" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B261" s="2" t="s">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
+      <c r="B263" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B262" s="2" t="s">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
+      <c r="B264" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B263" s="2" t="s">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B264" s="2" t="s">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B265" s="2" t="s">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
+      <c r="B267" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B266" s="2" t="s">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
+      <c r="B268" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B267" s="2" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
+      <c r="B269" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B268" s="2" t="s">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
+      <c r="B270" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B269" s="2" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="3" t="s">
+      <c r="B271" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B270" s="2" t="s">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B271" s="2" t="s">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+      <c r="B273" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B272" s="2" t="s">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
+      <c r="B274" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B273" s="2" t="s">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
+      <c r="B275" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B274" s="2" t="s">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
+      <c r="B276" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B275" s="2" t="s">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+      <c r="B277" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B276" s="2" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
+      <c r="B278" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B277" s="2" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+      <c r="B279" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B278" s="2" t="s">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
+      <c r="B280" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B279" s="2" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+      <c r="B281" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B280" s="2" t="s">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+      <c r="B282" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B281" s="2" t="s">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+      <c r="B283" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B282" s="2" t="s">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
+      <c r="B284" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B283" s="2" t="s">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
+      <c r="B285" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B284" s="2" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
+      <c r="B286" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B285" s="2" t="s">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B286" s="2" t="s">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
+      <c r="B288" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B287" s="2" t="s">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+      <c r="B289" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B288" s="2" t="s">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+      <c r="B290" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B289" s="2" t="s">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
+      <c r="B291" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B290" s="2" t="s">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
+      <c r="B292" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B291" s="2" t="s">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
+      <c r="B293" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B292" s="2" t="s">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
+      <c r="B294" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B293" s="2" t="s">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+      <c r="B295" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B294" s="2" t="s">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
+      <c r="B296" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B295" s="2" t="s">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
+      <c r="B297" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B296" s="2" t="s">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
+      <c r="B298" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B297" s="2" t="s">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
+      <c r="B299" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B298" s="2" t="s">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
+      <c r="B300" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B299" s="2" t="s">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B300" s="2" t="s">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
+      <c r="B302" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B301" s="2" t="s">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
+      <c r="B303" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B302" s="2" t="s">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
+      <c r="B304" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B303" s="2" t="s">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
+      <c r="B305" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B304" s="2" t="s">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+      <c r="B306" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B305" s="2" t="s">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+      <c r="B307" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B306" s="2" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="3" t="s">
+      <c r="B308" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B307" s="2" t="s">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="3" t="s">
+      <c r="B309" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B308" s="2" t="s">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
+      <c r="B310" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B309" s="2" t="s">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="3" t="s">
+      <c r="B311" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B310" s="2" t="s">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
+      <c r="B312" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B311" s="2" t="s">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+      <c r="B313" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B312" s="2" t="s">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
+      <c r="B314" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B313" s="2" t="s">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
+      <c r="B315" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B314" s="2" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
+      <c r="B316" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B315" s="2" t="s">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="3" t="s">
+      <c r="B317" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B316" s="2" t="s">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
+      <c r="B318" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B317" s="2" t="s">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
+      <c r="B319" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B318" s="2" t="s">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
+      <c r="B320" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B319" s="2" t="s">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
+      <c r="B321" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B320" s="2" t="s">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
+      <c r="B322" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B321" s="2" t="s">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
+      <c r="B323" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B322" s="2" t="s">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
+      <c r="B324" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B323" s="2" t="s">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
+      <c r="B325" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B324" s="2" t="s">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
+      <c r="B326" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B325" s="2" t="s">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
+      <c r="B327" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B326" s="2" t="s">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
+      <c r="B328" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B327" s="2" t="s">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="3" t="s">
+      <c r="B329" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B328" s="2" t="s">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
+      <c r="B330" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B329" s="2" t="s">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+      <c r="B331" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B330" s="2" t="s">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
+      <c r="B332" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B331" s="2" t="s">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
+      <c r="B333" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B332" s="2" t="s">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
+      <c r="B334" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B333" s="2" t="s">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
+      <c r="B335" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B334" s="2" t="s">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="3" t="s">
+      <c r="B336" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B335" s="2" t="s">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
+      <c r="B337" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B336" s="2" t="s">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="3" t="s">
+      <c r="B338" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B337" s="2" t="s">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="3" t="s">
+      <c r="B339" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B338" s="2" t="s">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="3" t="s">
+      <c r="B340" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B339" s="2" t="s">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="3" t="s">
+      <c r="B341" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B340" s="2" t="s">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="3" t="s">
+      <c r="B342" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B341" s="2" t="s">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
+      <c r="B343" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B342" s="2" t="s">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="3" t="s">
+      <c r="B344" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B343" s="2" t="s">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="3" t="s">
+      <c r="B345" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B344" s="2" t="s">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="3" t="s">
+      <c r="B346" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B345" s="2" t="s">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="3" t="s">
+      <c r="B347" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B346" s="2" t="s">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="3" t="s">
+      <c r="B348" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B347" s="2" t="s">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
+      <c r="B349" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B348" s="2" t="s">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="3" t="s">
+      <c r="B350" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B349" s="2" t="s">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
+      <c r="B351" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B350" s="2" t="s">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="3" t="s">
+      <c r="B352" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B351" s="2" t="s">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
+      <c r="B353" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B352" s="2" t="s">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="3" t="s">
+      <c r="B354" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B353" s="2" t="s">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="3" t="s">
+      <c r="B355" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B354" s="2" t="s">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="3" t="s">
+      <c r="B356" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B355" s="2" t="s">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="3" t="s">
+      <c r="B357" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B356" s="2" t="s">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="3" t="s">
+      <c r="B358" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B357" s="2" t="s">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="3" t="s">
+      <c r="B359" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B358" s="2" t="s">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="3" t="s">
+      <c r="B360" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B359" s="2" t="s">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="3" t="s">
+      <c r="B361" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B360" s="2" t="s">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="3" t="s">
+      <c r="B362" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B361" s="2" t="s">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="3" t="s">
+      <c r="B363" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B362" s="2" t="s">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="3" t="s">
+      <c r="B364" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B363" s="2" t="s">
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="3" t="s">
+      <c r="B365" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B364" s="2" t="s">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="3" t="s">
+      <c r="B366" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B365" s="2" t="s">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="3" t="s">
+      <c r="B367" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B366" s="2" t="s">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="3" t="s">
+      <c r="B368" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B367" s="2" t="s">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="3" t="s">
+      <c r="B369" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B368" s="2" t="s">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="3" t="s">
+      <c r="B370" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B369" s="2" t="s">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="3" t="s">
+      <c r="B371" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B370" s="2" t="s">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="3" t="s">
+      <c r="B372" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B371" s="2" t="s">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" s="3" t="s">
+      <c r="B373" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B372" s="2" t="s">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" s="3" t="s">
+      <c r="B374" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B373" s="2" t="s">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="3" t="s">
+      <c r="B375" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B374" s="2" t="s">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="3" t="s">
+      <c r="B376" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B375" s="2" t="s">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" s="3" t="s">
+      <c r="B377" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B376" s="2" t="s">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" s="3" t="s">
+      <c r="B378" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B377" s="2" t="s">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" s="3" t="s">
+      <c r="B379" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B378" s="2" t="s">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" s="3" t="s">
+      <c r="B380" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B379" s="2" t="s">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" s="3" t="s">
+      <c r="B381" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B380" s="2" t="s">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="3" t="s">
+      <c r="B382" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="B381" s="2" t="s">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="3" t="s">
+      <c r="B383" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B382" s="2" t="s">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" s="3" t="s">
+      <c r="B384" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B383" s="2" t="s">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="3" t="s">
+      <c r="B385" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B384" s="2" t="s">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="3" t="s">
+      <c r="B386" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B385" s="2" t="s">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" s="3" t="s">
+      <c r="B387" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B386" s="2" t="s">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="3" t="s">
+      <c r="B388" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B387" s="2" t="s">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="3" t="s">
+      <c r="B389" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B388" s="2" t="s">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="3" t="s">
+      <c r="B390" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B389" s="2" t="s">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="3" t="s">
+      <c r="B391" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B390" s="2" t="s">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="3" t="s">
+      <c r="B392" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B391" s="2" t="s">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="3" t="s">
+      <c r="B393" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B392" s="2" t="s">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="3" t="s">
+      <c r="B394" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B393" s="2" t="s">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="3" t="s">
+      <c r="B395" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B394" s="2" t="s">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="3" t="s">
+      <c r="B396" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B395" s="2" t="s">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="3" t="s">
+      <c r="B397" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B396" s="2" t="s">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="3" t="s">
+      <c r="B398" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B397" s="2" t="s">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="3" t="s">
+      <c r="B399" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B398" s="2" t="s">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="3" t="s">
+      <c r="B400" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>797</v>
       </c>
     </row>
   </sheetData>
